--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -418,31 +418,31 @@
         <v>1.488304702559728</v>
       </c>
       <c r="D2">
-        <v>4.204697580405279</v>
+        <v>4.204697580405235</v>
       </c>
       <c r="E2">
-        <v>7.14370516948916</v>
+        <v>7.143705169489174</v>
       </c>
       <c r="F2">
-        <v>38.05157916311169</v>
+        <v>38.05157916311192</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>28.56398055331498</v>
+        <v>28.56398055331518</v>
       </c>
       <c r="I2">
-        <v>4.652604184276374</v>
+        <v>4.652604184276342</v>
       </c>
       <c r="J2">
-        <v>62.02225956742569</v>
+        <v>62.02225956742586</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.74150504580896</v>
+        <v>38.74150504580906</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.213782994624266</v>
+        <v>1.213782994624378</v>
       </c>
       <c r="D3">
-        <v>3.756546681927426</v>
+        <v>3.75654668192739</v>
       </c>
       <c r="E3">
-        <v>6.91542665893923</v>
+        <v>6.915426658939222</v>
       </c>
       <c r="F3">
-        <v>34.7608736824485</v>
+        <v>34.76087368244873</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26.00622572755772</v>
+        <v>26.00622572755788</v>
       </c>
       <c r="I3">
-        <v>4.790110220110146</v>
+        <v>4.790110220110193</v>
       </c>
       <c r="J3">
-        <v>57.45331245063014</v>
+        <v>57.45331245063018</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.87380923160146</v>
+        <v>35.87380923160147</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.133089889211727</v>
+        <v>1.133089889211724</v>
       </c>
       <c r="D4">
-        <v>3.483348660244018</v>
+        <v>3.483348660243881</v>
       </c>
       <c r="E4">
-        <v>6.775909412786767</v>
+        <v>6.775909412786757</v>
       </c>
       <c r="F4">
-        <v>32.80369185242428</v>
+        <v>32.80369185242435</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.45175409324121</v>
+        <v>24.45175409324122</v>
       </c>
       <c r="I4">
-        <v>4.882320060313609</v>
+        <v>4.882320060313717</v>
       </c>
       <c r="J4">
-        <v>54.53573771182363</v>
+        <v>54.53573771182355</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.04499449209019</v>
+        <v>34.04499449209014</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.20580431322621</v>
+        <v>1.205804313226209</v>
       </c>
       <c r="D5">
-        <v>3.37208383322973</v>
+        <v>3.372083833229832</v>
       </c>
       <c r="E5">
-        <v>6.719219691235359</v>
+        <v>6.719219691235399</v>
       </c>
       <c r="F5">
-        <v>32.1122811236541</v>
+        <v>32.11228112365414</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.89093201172351</v>
+        <v>23.89093201172354</v>
       </c>
       <c r="I5">
-        <v>4.921629575233885</v>
+        <v>4.921629575233882</v>
       </c>
       <c r="J5">
-        <v>53.31679104304808</v>
+        <v>53.3167910430481</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.217884234044037</v>
+        <v>1.217884234043773</v>
       </c>
       <c r="D6">
-        <v>3.353601275215286</v>
+        <v>3.35360127521519</v>
       </c>
       <c r="E6">
-        <v>6.709816726828924</v>
+        <v>6.709816726828979</v>
       </c>
       <c r="F6">
-        <v>31.99845492282894</v>
+        <v>31.99845492282888</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.81115887407085</v>
+        <v>23.81115887407082</v>
       </c>
       <c r="I6">
-        <v>4.928256061583955</v>
+        <v>4.928256061584044</v>
       </c>
       <c r="J6">
-        <v>53.11252613798555</v>
+        <v>53.11252613798558</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.15353578549459</v>
+        <v>33.15353578549461</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.134070134953626</v>
+        <v>1.134070134953755</v>
       </c>
       <c r="D7">
-        <v>3.48184834868437</v>
+        <v>3.481848348684335</v>
       </c>
       <c r="E7">
-        <v>6.775144193748766</v>
+        <v>6.775144193748813</v>
       </c>
       <c r="F7">
-        <v>32.79430089245513</v>
+        <v>32.79430089245519</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.44323779931084</v>
+        <v>24.44323779931091</v>
       </c>
       <c r="I7">
-        <v>4.882843439993002</v>
+        <v>4.882843439993079</v>
       </c>
       <c r="J7">
-        <v>54.5194222508082</v>
+        <v>54.51942225080818</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.03477258027238</v>
+        <v>34.03477258027237</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.392537120100366</v>
+        <v>1.392537120100487</v>
       </c>
       <c r="D8">
-        <v>4.049480962168244</v>
+        <v>4.049480962168345</v>
       </c>
       <c r="E8">
-        <v>7.06485607228248</v>
+        <v>7.06485607228252</v>
       </c>
       <c r="F8">
-        <v>36.90740987885786</v>
+        <v>36.90740987885781</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.67776960120589</v>
+        <v>27.67776960120585</v>
       </c>
       <c r="I8">
-        <v>4.698248504694782</v>
+        <v>4.698248504694777</v>
       </c>
       <c r="J8">
-        <v>60.46900260866691</v>
+        <v>60.46900260866686</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.76607407259856</v>
+        <v>37.76607407259851</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.117600590873581</v>
+        <v>2.117600590873572</v>
       </c>
       <c r="D9">
-        <v>5.203298446314622</v>
+        <v>5.203298446314892</v>
       </c>
       <c r="E9">
-        <v>7.639193219304606</v>
+        <v>7.639193219304732</v>
       </c>
       <c r="F9">
-        <v>45.45793286170701</v>
+        <v>45.4579328617075</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34.24222637880803</v>
+        <v>34.24222637880845</v>
       </c>
       <c r="I9">
-        <v>4.803226794557188</v>
+        <v>4.803226794557186</v>
       </c>
       <c r="J9">
-        <v>71.34683618526151</v>
+        <v>71.34683618526188</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.60971652081849</v>
+        <v>44.60971652081871</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.712895870288129</v>
+        <v>2.712895870288258</v>
       </c>
       <c r="D10">
-        <v>6.124623185460097</v>
+        <v>6.124623185460224</v>
       </c>
       <c r="E10">
-        <v>8.068942361183321</v>
+        <v>8.068942361183328</v>
       </c>
       <c r="F10">
-        <v>52.27143240172811</v>
+        <v>52.27143240172838</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39.40613629490773</v>
+        <v>39.40613629490797</v>
       </c>
       <c r="I10">
-        <v>5.388128982245517</v>
+        <v>5.388128982245567</v>
       </c>
       <c r="J10">
-        <v>79.0478908551989</v>
+        <v>79.047890855199</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.47440757500331</v>
+        <v>49.47440757500335</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.009128337288944</v>
+        <v>3.009128337288955</v>
       </c>
       <c r="D11">
-        <v>6.577317146331676</v>
+        <v>6.577317146331488</v>
       </c>
       <c r="E11">
-        <v>8.268080815338704</v>
+        <v>8.268080815338582</v>
       </c>
       <c r="F11">
-        <v>55.59124579444254</v>
+        <v>55.59124579444216</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>41.90865929966453</v>
+        <v>41.90865929966424</v>
       </c>
       <c r="I11">
-        <v>5.661341754369088</v>
+        <v>5.661341754369172</v>
       </c>
       <c r="J11">
-        <v>82.55420096130004</v>
+        <v>82.55420096129991</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.69563491659327</v>
+        <v>51.69563491659321</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.126565306159007</v>
+        <v>3.126565306158887</v>
       </c>
       <c r="D12">
-        <v>6.755929665604918</v>
+        <v>6.755929665604905</v>
       </c>
       <c r="E12">
-        <v>8.344299175396511</v>
+        <v>8.344299175396506</v>
       </c>
       <c r="F12">
-        <v>56.89456866260861</v>
+        <v>56.894568662608</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42.8892332985067</v>
+        <v>42.88923329850633</v>
       </c>
       <c r="I12">
-        <v>5.766702380963971</v>
+        <v>5.766702380964</v>
       </c>
       <c r="J12">
-        <v>83.89104783796132</v>
+        <v>83.89104783796117</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.54366912166709</v>
+        <v>52.54366912166696</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.101005066080678</v>
+        <v>3.101005066080428</v>
       </c>
       <c r="D13">
-        <v>6.717092465206141</v>
+        <v>6.717092465205838</v>
       </c>
       <c r="E13">
-        <v>8.327842021708227</v>
+        <v>8.327842021708108</v>
       </c>
       <c r="F13">
-        <v>56.61151018404706</v>
+        <v>56.61151018404631</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.67635297401539</v>
+        <v>42.67635297401478</v>
       </c>
       <c r="I13">
-        <v>5.743908393587398</v>
+        <v>5.743908393587425</v>
       </c>
       <c r="J13">
-        <v>83.60254818952161</v>
+        <v>83.60254818952137</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.36060244210255</v>
+        <v>52.3606024421024</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.018672544737359</v>
+        <v>3.018672544737217</v>
       </c>
       <c r="D14">
-        <v>6.591850065126263</v>
+        <v>6.59185006512617</v>
       </c>
       <c r="E14">
-        <v>8.274332963475612</v>
+        <v>8.274332963475645</v>
       </c>
       <c r="F14">
-        <v>55.69743642731051</v>
+        <v>55.69743642731076</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41.9885905146461</v>
+        <v>41.98859051464625</v>
       </c>
       <c r="I14">
-        <v>5.669965357145227</v>
+        <v>5.66996535714518</v>
       </c>
       <c r="J14">
-        <v>82.6639382649233</v>
+        <v>82.66393826492339</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.76522258685485</v>
+        <v>51.76522258685492</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.968987164043785</v>
+        <v>2.968987164043797</v>
       </c>
       <c r="D15">
-        <v>6.51616053345285</v>
+        <v>6.516160533452851</v>
       </c>
       <c r="E15">
-        <v>8.24167344048244</v>
+        <v>8.24167344048241</v>
       </c>
       <c r="F15">
-        <v>55.14410539866076</v>
+        <v>55.14410539866086</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41.57201545351963</v>
+        <v>41.57201545351968</v>
       </c>
       <c r="I15">
-        <v>5.624953034065037</v>
+        <v>5.624953034065057</v>
       </c>
       <c r="J15">
-        <v>82.09051894647314</v>
+        <v>82.09051894647317</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.401648331833</v>
+        <v>51.40164833183306</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.694169048536657</v>
+        <v>2.694169048536791</v>
       </c>
       <c r="D16">
-        <v>6.095892352775538</v>
+        <v>6.095892352775486</v>
       </c>
       <c r="E16">
-        <v>8.056022754245982</v>
+        <v>8.056022754245957</v>
       </c>
       <c r="F16">
-        <v>52.0599981663655</v>
+        <v>52.05999816636534</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39.24649576078302</v>
+        <v>39.24649576078289</v>
       </c>
       <c r="I16">
-        <v>5.370484325199854</v>
+        <v>5.370484325199937</v>
       </c>
       <c r="J16">
-        <v>78.81946307589656</v>
+        <v>78.81946307589654</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.32984514134905</v>
+        <v>49.32984514134901</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.533021338324724</v>
+        <v>2.533021338324737</v>
       </c>
       <c r="D17">
-        <v>5.848043913927062</v>
+        <v>5.848043913927006</v>
       </c>
       <c r="E17">
-        <v>7.94322719032506</v>
+        <v>7.943227190324964</v>
       </c>
       <c r="F17">
-        <v>50.23279597045745</v>
+        <v>50.23279597045702</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37.86544951735529</v>
+        <v>37.86544951735495</v>
       </c>
       <c r="I17">
-        <v>5.216722752248097</v>
+        <v>5.216722752248129</v>
       </c>
       <c r="J17">
-        <v>76.81863465333575</v>
+        <v>76.81863465333561</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>48.06432954185001</v>
+        <v>48.06432954184991</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.442600525561906</v>
+        <v>2.442600525561901</v>
       </c>
       <c r="D18">
-        <v>5.708463189361975</v>
+        <v>5.708463189362022</v>
       </c>
       <c r="E18">
-        <v>7.878669913185328</v>
+        <v>7.878669913185303</v>
       </c>
       <c r="F18">
-        <v>49.20142217817882</v>
+        <v>49.20142217817833</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>37.08469006855159</v>
+        <v>37.08469006855122</v>
       </c>
       <c r="I18">
-        <v>5.128887435974081</v>
+        <v>5.128887435974107</v>
       </c>
       <c r="J18">
-        <v>75.66742563940446</v>
+        <v>75.66742563940426</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.33676963927036</v>
+        <v>47.33676963927023</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.412337049698635</v>
+        <v>2.412337049698506</v>
       </c>
       <c r="D19">
-        <v>5.661658638960597</v>
+        <v>5.661658638960494</v>
       </c>
       <c r="E19">
         <v>7.856860290754552</v>
       </c>
       <c r="F19">
-        <v>48.85524020670109</v>
+        <v>48.85524020670088</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36.82241526305285</v>
+        <v>36.82241526305272</v>
       </c>
       <c r="I19">
-        <v>5.099230454126653</v>
+        <v>5.099230454126624</v>
       </c>
       <c r="J19">
-        <v>75.27737261406536</v>
+        <v>75.27737261406516</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>47.09035027113963</v>
+        <v>47.09035027113949</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.549931778462668</v>
+        <v>2.549931778462529</v>
       </c>
       <c r="D20">
         <v>5.874106075865844</v>
       </c>
       <c r="E20">
-        <v>7.955199747791954</v>
+        <v>7.955199747791979</v>
       </c>
       <c r="F20">
-        <v>50.42519360053839</v>
+        <v>50.42519360053832</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38.01099530012549</v>
+        <v>38.01099530012546</v>
       </c>
       <c r="I20">
-        <v>5.233023165831435</v>
+        <v>5.23302316583142</v>
       </c>
       <c r="J20">
-        <v>77.03161503358352</v>
+        <v>77.03161503358351</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.19897777486917</v>
+        <v>48.19897777486919</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.042696164986432</v>
+        <v>3.04269616498669</v>
       </c>
       <c r="D21">
-        <v>6.628417238420098</v>
+        <v>6.628417238420183</v>
       </c>
       <c r="E21">
-        <v>8.290024895991742</v>
+        <v>8.290024895991735</v>
       </c>
       <c r="F21">
-        <v>55.96451699651682</v>
+        <v>55.96451699651715</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>42.18959622957416</v>
+        <v>42.18959622957438</v>
       </c>
       <c r="I21">
-        <v>5.691623745289876</v>
+        <v>5.691623745289891</v>
       </c>
       <c r="J21">
-        <v>82.93929535536347</v>
+        <v>82.93929535536357</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.9398539018428</v>
+        <v>51.93985390184286</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.396827497659212</v>
+        <v>3.396827497659598</v>
       </c>
       <c r="D22">
-        <v>7.165381692560381</v>
+        <v>7.165381692560627</v>
       </c>
       <c r="E22">
-        <v>8.513827967229618</v>
+        <v>8.513827967229744</v>
       </c>
       <c r="F22">
-        <v>59.86695377057083</v>
+        <v>59.86695377057151</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.12212535785617</v>
+        <v>45.1221253578567</v>
       </c>
       <c r="I22">
-        <v>6.003161486423314</v>
+        <v>6.003161486423238</v>
       </c>
       <c r="J22">
-        <v>86.8607310414767</v>
+        <v>86.86073104147692</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.42992583641318</v>
+        <v>54.4299258364133</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.204122655724345</v>
+        <v>3.204122655724207</v>
       </c>
       <c r="D23">
-        <v>6.873649074707316</v>
+        <v>6.87364907470715</v>
       </c>
       <c r="E23">
-        <v>8.393786366078151</v>
+        <v>8.393786366078135</v>
       </c>
       <c r="F23">
-        <v>57.75138448421316</v>
+        <v>57.75138448421296</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43.53335187240861</v>
+        <v>43.53335187240847</v>
       </c>
       <c r="I23">
-        <v>5.835404001567937</v>
+        <v>5.835404001567947</v>
       </c>
       <c r="J23">
-        <v>84.75820788158596</v>
+        <v>84.75820788158595</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.54227974659335</v>
+        <v>2.542279746593468</v>
       </c>
       <c r="D24">
-        <v>5.862314466795322</v>
+        <v>5.862314466795265</v>
       </c>
       <c r="E24">
-        <v>7.949786069272172</v>
+        <v>7.949786069272184</v>
       </c>
       <c r="F24">
-        <v>50.33815209437344</v>
+        <v>50.33815209437333</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37.94515360391048</v>
+        <v>37.94515360391038</v>
       </c>
       <c r="I24">
-        <v>5.22565205143416</v>
+        <v>5.225652051434142</v>
       </c>
       <c r="J24">
-        <v>76.93533001658238</v>
+        <v>76.93533001658231</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.13810369340523</v>
+        <v>48.1381036934052</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.913406113002631</v>
+        <v>1.913406113002626</v>
       </c>
       <c r="D25">
-        <v>4.882673151576597</v>
+        <v>4.88267315157678</v>
       </c>
       <c r="E25">
-        <v>7.48289009599698</v>
+        <v>7.482890095996996</v>
       </c>
       <c r="F25">
-        <v>43.07700146839929</v>
+        <v>43.07700146839966</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32.42602021004509</v>
+        <v>32.4260202100454</v>
       </c>
       <c r="I25">
-        <v>4.589905554598138</v>
+        <v>4.58990555459816</v>
       </c>
       <c r="J25">
-        <v>68.47218911176699</v>
+        <v>68.47218911176725</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.79822966223131</v>
+        <v>42.79822966223148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -418,31 +418,31 @@
         <v>1.488304702559728</v>
       </c>
       <c r="D2">
-        <v>4.204697580405235</v>
+        <v>4.204697580405279</v>
       </c>
       <c r="E2">
-        <v>7.143705169489174</v>
+        <v>7.14370516948916</v>
       </c>
       <c r="F2">
-        <v>38.05157916311192</v>
+        <v>38.05157916311169</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>28.56398055331518</v>
+        <v>28.56398055331498</v>
       </c>
       <c r="I2">
-        <v>4.652604184276342</v>
+        <v>4.652604184276374</v>
       </c>
       <c r="J2">
-        <v>62.02225956742586</v>
+        <v>62.02225956742569</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.74150504580906</v>
+        <v>38.74150504580896</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.213782994624378</v>
+        <v>1.213782994624266</v>
       </c>
       <c r="D3">
-        <v>3.75654668192739</v>
+        <v>3.756546681927426</v>
       </c>
       <c r="E3">
-        <v>6.915426658939222</v>
+        <v>6.91542665893923</v>
       </c>
       <c r="F3">
-        <v>34.76087368244873</v>
+        <v>34.7608736824485</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26.00622572755788</v>
+        <v>26.00622572755772</v>
       </c>
       <c r="I3">
-        <v>4.790110220110193</v>
+        <v>4.790110220110146</v>
       </c>
       <c r="J3">
-        <v>57.45331245063018</v>
+        <v>57.45331245063014</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.87380923160147</v>
+        <v>35.87380923160146</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.133089889211724</v>
+        <v>1.133089889211727</v>
       </c>
       <c r="D4">
-        <v>3.483348660243881</v>
+        <v>3.483348660244018</v>
       </c>
       <c r="E4">
-        <v>6.775909412786757</v>
+        <v>6.775909412786767</v>
       </c>
       <c r="F4">
-        <v>32.80369185242435</v>
+        <v>32.80369185242428</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.45175409324122</v>
+        <v>24.45175409324121</v>
       </c>
       <c r="I4">
-        <v>4.882320060313717</v>
+        <v>4.882320060313609</v>
       </c>
       <c r="J4">
-        <v>54.53573771182355</v>
+        <v>54.53573771182363</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.04499449209014</v>
+        <v>34.04499449209019</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.205804313226209</v>
+        <v>1.20580431322621</v>
       </c>
       <c r="D5">
-        <v>3.372083833229832</v>
+        <v>3.37208383322973</v>
       </c>
       <c r="E5">
-        <v>6.719219691235399</v>
+        <v>6.719219691235359</v>
       </c>
       <c r="F5">
-        <v>32.11228112365414</v>
+        <v>32.1122811236541</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.89093201172354</v>
+        <v>23.89093201172351</v>
       </c>
       <c r="I5">
-        <v>4.921629575233882</v>
+        <v>4.921629575233885</v>
       </c>
       <c r="J5">
-        <v>53.3167910430481</v>
+        <v>53.31679104304808</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.217884234043773</v>
+        <v>1.217884234044037</v>
       </c>
       <c r="D6">
-        <v>3.35360127521519</v>
+        <v>3.353601275215286</v>
       </c>
       <c r="E6">
-        <v>6.709816726828979</v>
+        <v>6.709816726828924</v>
       </c>
       <c r="F6">
-        <v>31.99845492282888</v>
+        <v>31.99845492282894</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.81115887407082</v>
+        <v>23.81115887407085</v>
       </c>
       <c r="I6">
-        <v>4.928256061584044</v>
+        <v>4.928256061583955</v>
       </c>
       <c r="J6">
-        <v>53.11252613798558</v>
+        <v>53.11252613798555</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.15353578549461</v>
+        <v>33.15353578549459</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.134070134953755</v>
+        <v>1.134070134953626</v>
       </c>
       <c r="D7">
-        <v>3.481848348684335</v>
+        <v>3.48184834868437</v>
       </c>
       <c r="E7">
-        <v>6.775144193748813</v>
+        <v>6.775144193748766</v>
       </c>
       <c r="F7">
-        <v>32.79430089245519</v>
+        <v>32.79430089245513</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.44323779931091</v>
+        <v>24.44323779931084</v>
       </c>
       <c r="I7">
-        <v>4.882843439993079</v>
+        <v>4.882843439993002</v>
       </c>
       <c r="J7">
-        <v>54.51942225080818</v>
+        <v>54.5194222508082</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.03477258027237</v>
+        <v>34.03477258027238</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.392537120100487</v>
+        <v>1.392537120100366</v>
       </c>
       <c r="D8">
-        <v>4.049480962168345</v>
+        <v>4.049480962168244</v>
       </c>
       <c r="E8">
-        <v>7.06485607228252</v>
+        <v>7.06485607228248</v>
       </c>
       <c r="F8">
-        <v>36.90740987885781</v>
+        <v>36.90740987885786</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.67776960120585</v>
+        <v>27.67776960120589</v>
       </c>
       <c r="I8">
-        <v>4.698248504694777</v>
+        <v>4.698248504694782</v>
       </c>
       <c r="J8">
-        <v>60.46900260866686</v>
+        <v>60.46900260866691</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.76607407259851</v>
+        <v>37.76607407259856</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.117600590873572</v>
+        <v>2.117600590873581</v>
       </c>
       <c r="D9">
-        <v>5.203298446314892</v>
+        <v>5.203298446314622</v>
       </c>
       <c r="E9">
-        <v>7.639193219304732</v>
+        <v>7.639193219304606</v>
       </c>
       <c r="F9">
-        <v>45.4579328617075</v>
+        <v>45.45793286170701</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34.24222637880845</v>
+        <v>34.24222637880803</v>
       </c>
       <c r="I9">
-        <v>4.803226794557186</v>
+        <v>4.803226794557188</v>
       </c>
       <c r="J9">
-        <v>71.34683618526188</v>
+        <v>71.34683618526151</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.60971652081871</v>
+        <v>44.60971652081849</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.712895870288258</v>
+        <v>2.712895870288129</v>
       </c>
       <c r="D10">
-        <v>6.124623185460224</v>
+        <v>6.124623185460097</v>
       </c>
       <c r="E10">
-        <v>8.068942361183328</v>
+        <v>8.068942361183321</v>
       </c>
       <c r="F10">
-        <v>52.27143240172838</v>
+        <v>52.27143240172811</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39.40613629490797</v>
+        <v>39.40613629490773</v>
       </c>
       <c r="I10">
-        <v>5.388128982245567</v>
+        <v>5.388128982245517</v>
       </c>
       <c r="J10">
-        <v>79.047890855199</v>
+        <v>79.0478908551989</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.47440757500335</v>
+        <v>49.47440757500331</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.009128337288955</v>
+        <v>3.009128337288944</v>
       </c>
       <c r="D11">
-        <v>6.577317146331488</v>
+        <v>6.577317146331676</v>
       </c>
       <c r="E11">
-        <v>8.268080815338582</v>
+        <v>8.268080815338704</v>
       </c>
       <c r="F11">
-        <v>55.59124579444216</v>
+        <v>55.59124579444254</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>41.90865929966424</v>
+        <v>41.90865929966453</v>
       </c>
       <c r="I11">
-        <v>5.661341754369172</v>
+        <v>5.661341754369088</v>
       </c>
       <c r="J11">
-        <v>82.55420096129991</v>
+        <v>82.55420096130004</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.69563491659321</v>
+        <v>51.69563491659327</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.126565306158887</v>
+        <v>3.126565306159007</v>
       </c>
       <c r="D12">
-        <v>6.755929665604905</v>
+        <v>6.755929665604918</v>
       </c>
       <c r="E12">
-        <v>8.344299175396506</v>
+        <v>8.344299175396511</v>
       </c>
       <c r="F12">
-        <v>56.894568662608</v>
+        <v>56.89456866260861</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42.88923329850633</v>
+        <v>42.8892332985067</v>
       </c>
       <c r="I12">
-        <v>5.766702380964</v>
+        <v>5.766702380963971</v>
       </c>
       <c r="J12">
-        <v>83.89104783796117</v>
+        <v>83.89104783796132</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.54366912166696</v>
+        <v>52.54366912166709</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.101005066080428</v>
+        <v>3.101005066080678</v>
       </c>
       <c r="D13">
-        <v>6.717092465205838</v>
+        <v>6.717092465206141</v>
       </c>
       <c r="E13">
-        <v>8.327842021708108</v>
+        <v>8.327842021708227</v>
       </c>
       <c r="F13">
-        <v>56.61151018404631</v>
+        <v>56.61151018404706</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.67635297401478</v>
+        <v>42.67635297401539</v>
       </c>
       <c r="I13">
-        <v>5.743908393587425</v>
+        <v>5.743908393587398</v>
       </c>
       <c r="J13">
-        <v>83.60254818952137</v>
+        <v>83.60254818952161</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.3606024421024</v>
+        <v>52.36060244210255</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.018672544737217</v>
+        <v>3.018672544737359</v>
       </c>
       <c r="D14">
-        <v>6.59185006512617</v>
+        <v>6.591850065126263</v>
       </c>
       <c r="E14">
-        <v>8.274332963475645</v>
+        <v>8.274332963475612</v>
       </c>
       <c r="F14">
-        <v>55.69743642731076</v>
+        <v>55.69743642731051</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41.98859051464625</v>
+        <v>41.9885905146461</v>
       </c>
       <c r="I14">
-        <v>5.66996535714518</v>
+        <v>5.669965357145227</v>
       </c>
       <c r="J14">
-        <v>82.66393826492339</v>
+        <v>82.6639382649233</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.76522258685492</v>
+        <v>51.76522258685485</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.968987164043797</v>
+        <v>2.968987164043785</v>
       </c>
       <c r="D15">
-        <v>6.516160533452851</v>
+        <v>6.51616053345285</v>
       </c>
       <c r="E15">
-        <v>8.24167344048241</v>
+        <v>8.24167344048244</v>
       </c>
       <c r="F15">
-        <v>55.14410539866086</v>
+        <v>55.14410539866076</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41.57201545351968</v>
+        <v>41.57201545351963</v>
       </c>
       <c r="I15">
-        <v>5.624953034065057</v>
+        <v>5.624953034065037</v>
       </c>
       <c r="J15">
-        <v>82.09051894647317</v>
+        <v>82.09051894647314</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.40164833183306</v>
+        <v>51.401648331833</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.694169048536791</v>
+        <v>2.694169048536657</v>
       </c>
       <c r="D16">
-        <v>6.095892352775486</v>
+        <v>6.095892352775538</v>
       </c>
       <c r="E16">
-        <v>8.056022754245957</v>
+        <v>8.056022754245982</v>
       </c>
       <c r="F16">
-        <v>52.05999816636534</v>
+        <v>52.0599981663655</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39.24649576078289</v>
+        <v>39.24649576078302</v>
       </c>
       <c r="I16">
-        <v>5.370484325199937</v>
+        <v>5.370484325199854</v>
       </c>
       <c r="J16">
-        <v>78.81946307589654</v>
+        <v>78.81946307589656</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.32984514134901</v>
+        <v>49.32984514134905</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.533021338324737</v>
+        <v>2.533021338324724</v>
       </c>
       <c r="D17">
-        <v>5.848043913927006</v>
+        <v>5.848043913927062</v>
       </c>
       <c r="E17">
-        <v>7.943227190324964</v>
+        <v>7.94322719032506</v>
       </c>
       <c r="F17">
-        <v>50.23279597045702</v>
+        <v>50.23279597045745</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37.86544951735495</v>
+        <v>37.86544951735529</v>
       </c>
       <c r="I17">
-        <v>5.216722752248129</v>
+        <v>5.216722752248097</v>
       </c>
       <c r="J17">
-        <v>76.81863465333561</v>
+        <v>76.81863465333575</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>48.06432954184991</v>
+        <v>48.06432954185001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.442600525561901</v>
+        <v>2.442600525561906</v>
       </c>
       <c r="D18">
-        <v>5.708463189362022</v>
+        <v>5.708463189361975</v>
       </c>
       <c r="E18">
-        <v>7.878669913185303</v>
+        <v>7.878669913185328</v>
       </c>
       <c r="F18">
-        <v>49.20142217817833</v>
+        <v>49.20142217817882</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>37.08469006855122</v>
+        <v>37.08469006855159</v>
       </c>
       <c r="I18">
-        <v>5.128887435974107</v>
+        <v>5.128887435974081</v>
       </c>
       <c r="J18">
-        <v>75.66742563940426</v>
+        <v>75.66742563940446</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.33676963927023</v>
+        <v>47.33676963927036</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.412337049698506</v>
+        <v>2.412337049698635</v>
       </c>
       <c r="D19">
-        <v>5.661658638960494</v>
+        <v>5.661658638960597</v>
       </c>
       <c r="E19">
         <v>7.856860290754552</v>
       </c>
       <c r="F19">
-        <v>48.85524020670088</v>
+        <v>48.85524020670109</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36.82241526305272</v>
+        <v>36.82241526305285</v>
       </c>
       <c r="I19">
-        <v>5.099230454126624</v>
+        <v>5.099230454126653</v>
       </c>
       <c r="J19">
-        <v>75.27737261406516</v>
+        <v>75.27737261406536</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>47.09035027113949</v>
+        <v>47.09035027113963</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.549931778462529</v>
+        <v>2.549931778462668</v>
       </c>
       <c r="D20">
         <v>5.874106075865844</v>
       </c>
       <c r="E20">
-        <v>7.955199747791979</v>
+        <v>7.955199747791954</v>
       </c>
       <c r="F20">
-        <v>50.42519360053832</v>
+        <v>50.42519360053839</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38.01099530012546</v>
+        <v>38.01099530012549</v>
       </c>
       <c r="I20">
-        <v>5.23302316583142</v>
+        <v>5.233023165831435</v>
       </c>
       <c r="J20">
-        <v>77.03161503358351</v>
+        <v>77.03161503358352</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.19897777486919</v>
+        <v>48.19897777486917</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.04269616498669</v>
+        <v>3.042696164986432</v>
       </c>
       <c r="D21">
-        <v>6.628417238420183</v>
+        <v>6.628417238420098</v>
       </c>
       <c r="E21">
-        <v>8.290024895991735</v>
+        <v>8.290024895991742</v>
       </c>
       <c r="F21">
-        <v>55.96451699651715</v>
+        <v>55.96451699651682</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>42.18959622957438</v>
+        <v>42.18959622957416</v>
       </c>
       <c r="I21">
-        <v>5.691623745289891</v>
+        <v>5.691623745289876</v>
       </c>
       <c r="J21">
-        <v>82.93929535536357</v>
+        <v>82.93929535536347</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.93985390184286</v>
+        <v>51.9398539018428</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.396827497659598</v>
+        <v>3.396827497659212</v>
       </c>
       <c r="D22">
-        <v>7.165381692560627</v>
+        <v>7.165381692560381</v>
       </c>
       <c r="E22">
-        <v>8.513827967229744</v>
+        <v>8.513827967229618</v>
       </c>
       <c r="F22">
-        <v>59.86695377057151</v>
+        <v>59.86695377057083</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.1221253578567</v>
+        <v>45.12212535785617</v>
       </c>
       <c r="I22">
-        <v>6.003161486423238</v>
+        <v>6.003161486423314</v>
       </c>
       <c r="J22">
-        <v>86.86073104147692</v>
+        <v>86.8607310414767</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.4299258364133</v>
+        <v>54.42992583641318</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.204122655724207</v>
+        <v>3.204122655724345</v>
       </c>
       <c r="D23">
-        <v>6.87364907470715</v>
+        <v>6.873649074707316</v>
       </c>
       <c r="E23">
-        <v>8.393786366078135</v>
+        <v>8.393786366078151</v>
       </c>
       <c r="F23">
-        <v>57.75138448421296</v>
+        <v>57.75138448421316</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43.53335187240847</v>
+        <v>43.53335187240861</v>
       </c>
       <c r="I23">
-        <v>5.835404001567947</v>
+        <v>5.835404001567937</v>
       </c>
       <c r="J23">
-        <v>84.75820788158595</v>
+        <v>84.75820788158596</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.542279746593468</v>
+        <v>2.54227974659335</v>
       </c>
       <c r="D24">
-        <v>5.862314466795265</v>
+        <v>5.862314466795322</v>
       </c>
       <c r="E24">
-        <v>7.949786069272184</v>
+        <v>7.949786069272172</v>
       </c>
       <c r="F24">
-        <v>50.33815209437333</v>
+        <v>50.33815209437344</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37.94515360391038</v>
+        <v>37.94515360391048</v>
       </c>
       <c r="I24">
-        <v>5.225652051434142</v>
+        <v>5.22565205143416</v>
       </c>
       <c r="J24">
-        <v>76.93533001658231</v>
+        <v>76.93533001658238</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.1381036934052</v>
+        <v>48.13810369340523</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.913406113002626</v>
+        <v>1.913406113002631</v>
       </c>
       <c r="D25">
-        <v>4.88267315157678</v>
+        <v>4.882673151576597</v>
       </c>
       <c r="E25">
-        <v>7.482890095996996</v>
+        <v>7.48289009599698</v>
       </c>
       <c r="F25">
-        <v>43.07700146839966</v>
+        <v>43.07700146839929</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32.4260202100454</v>
+        <v>32.42602021004509</v>
       </c>
       <c r="I25">
-        <v>4.58990555459816</v>
+        <v>4.589905554598138</v>
       </c>
       <c r="J25">
-        <v>68.47218911176725</v>
+        <v>68.47218911176699</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.79822966223148</v>
+        <v>42.79822966223131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.488304702559728</v>
+        <v>1.346594752855762</v>
       </c>
       <c r="D2">
-        <v>4.204697580405279</v>
+        <v>4.051953335906545</v>
       </c>
       <c r="E2">
-        <v>7.14370516948916</v>
+        <v>7.039651396255116</v>
       </c>
       <c r="F2">
-        <v>38.05157916311169</v>
+        <v>37.83374142984481</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.964482610933045</v>
       </c>
       <c r="H2">
-        <v>28.56398055331498</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.652604184276374</v>
+        <v>28.35879519703628</v>
       </c>
       <c r="J2">
-        <v>62.02225956742569</v>
+        <v>4.623916075996775</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>61.82330132120172</v>
       </c>
       <c r="L2">
-        <v>38.74150504580896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38.61015336698247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.213782994624266</v>
+        <v>1.09918222654316</v>
       </c>
       <c r="D3">
-        <v>3.756546681927426</v>
+        <v>3.608514471023606</v>
       </c>
       <c r="E3">
-        <v>6.91542665893923</v>
+        <v>6.803258763140649</v>
       </c>
       <c r="F3">
-        <v>34.7608736824485</v>
+        <v>34.61426312070416</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.988414866472911</v>
       </c>
       <c r="H3">
-        <v>26.00622572755772</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.790110220110146</v>
+        <v>25.84899903491812</v>
       </c>
       <c r="J3">
-        <v>57.45331245063014</v>
+        <v>4.758908862974106</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>57.26992633564367</v>
       </c>
       <c r="L3">
-        <v>35.87380923160146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.75177042341686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.133089889211727</v>
+        <v>1.279247250920178</v>
       </c>
       <c r="D4">
-        <v>3.483348660244018</v>
+        <v>3.338419428534253</v>
       </c>
       <c r="E4">
-        <v>6.775909412786767</v>
+        <v>6.658387020100112</v>
       </c>
       <c r="F4">
-        <v>32.80369185242428</v>
+        <v>32.8224216637843</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.003012397722508</v>
       </c>
       <c r="H4">
-        <v>24.45175409324121</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.882320060313609</v>
+        <v>24.41933142306864</v>
       </c>
       <c r="J4">
-        <v>54.53573771182363</v>
+        <v>4.849638337711635</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>54.36173280011459</v>
       </c>
       <c r="L4">
-        <v>34.04499449209019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>33.92847473998129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.20580431322621</v>
+        <v>1.352558765030145</v>
       </c>
       <c r="D5">
-        <v>3.37208383322973</v>
+        <v>3.228486740879719</v>
       </c>
       <c r="E5">
-        <v>6.719219691235359</v>
+        <v>6.59942613771991</v>
       </c>
       <c r="F5">
-        <v>32.1122811236541</v>
+        <v>32.15468229722435</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.008958349964181</v>
       </c>
       <c r="H5">
-        <v>23.89093201172351</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.921629575233885</v>
+        <v>23.95225616352022</v>
       </c>
       <c r="J5">
-        <v>53.31679104304808</v>
+        <v>4.888358019569504</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>53.1465958598706</v>
       </c>
       <c r="L5">
-        <v>33.28145578803783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.16715407936881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.217884234044037</v>
+        <v>1.364729655427808</v>
       </c>
       <c r="D6">
-        <v>3.353601275215286</v>
+        <v>3.210229907368217</v>
       </c>
       <c r="E6">
-        <v>6.709816726828924</v>
+        <v>6.589640809179574</v>
       </c>
       <c r="F6">
-        <v>31.99845492282894</v>
+        <v>32.04486156082007</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.009946073194377</v>
       </c>
       <c r="H6">
-        <v>23.81115887407085</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.928256061583955</v>
+        <v>23.87556492312785</v>
       </c>
       <c r="J6">
-        <v>53.11252613798555</v>
+        <v>4.894887303098762</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>52.94296356609076</v>
       </c>
       <c r="L6">
-        <v>33.15353578549459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>33.03960096875144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.134070134953626</v>
+        <v>1.280236169895807</v>
       </c>
       <c r="D7">
-        <v>3.48184834868437</v>
+        <v>3.336936789056792</v>
       </c>
       <c r="E7">
-        <v>6.775144193748766</v>
+        <v>6.65759152593985</v>
       </c>
       <c r="F7">
-        <v>32.79430089245513</v>
+        <v>32.81334492864647</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.003092571766897</v>
       </c>
       <c r="H7">
-        <v>24.44323779931084</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.882843439993002</v>
+        <v>24.41297378240533</v>
       </c>
       <c r="J7">
-        <v>54.5194222508082</v>
+        <v>4.850153711592667</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>54.34546873460694</v>
       </c>
       <c r="L7">
-        <v>34.03477258027238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>33.91828284562166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.392537120100366</v>
+        <v>1.251571282283877</v>
       </c>
       <c r="D8">
-        <v>4.049480962168244</v>
+        <v>3.898326989363443</v>
       </c>
       <c r="E8">
-        <v>7.06485607228248</v>
+        <v>6.958084315894403</v>
       </c>
       <c r="F8">
-        <v>36.90740987885786</v>
+        <v>36.7132431080891</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.972768983072838</v>
       </c>
       <c r="H8">
-        <v>27.67776960120589</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.698248504694782</v>
+        <v>27.48853092630665</v>
       </c>
       <c r="J8">
-        <v>60.46900260866691</v>
+        <v>4.668679475876104</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>60.27547291916678</v>
       </c>
       <c r="L8">
-        <v>37.76607407259856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>37.63798806195078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.117600590873581</v>
+        <v>1.972406845071175</v>
       </c>
       <c r="D9">
-        <v>5.203298446314622</v>
+        <v>5.040827034160354</v>
       </c>
       <c r="E9">
-        <v>7.639193219304606</v>
+        <v>7.550440584216402</v>
       </c>
       <c r="F9">
-        <v>45.45793286170701</v>
+        <v>45.10578767228642</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.911277104408918</v>
       </c>
       <c r="H9">
-        <v>34.24222637880803</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.803226794557188</v>
+        <v>33.94594478584698</v>
       </c>
       <c r="J9">
-        <v>71.34683618526151</v>
+        <v>4.824001262413171</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>71.11145743768357</v>
       </c>
       <c r="L9">
-        <v>44.60971652081849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>44.45604981282145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.712895870288129</v>
+        <v>2.5646501892532</v>
       </c>
       <c r="D10">
-        <v>6.124623185460097</v>
+        <v>5.953012228483543</v>
       </c>
       <c r="E10">
-        <v>8.068942361183321</v>
+        <v>7.991312965751907</v>
       </c>
       <c r="F10">
-        <v>52.27143240172811</v>
+        <v>51.81075062237055</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.862438827978391</v>
       </c>
       <c r="H10">
-        <v>39.40613629490773</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.388128982245517</v>
+        <v>39.03492046686496</v>
       </c>
       <c r="J10">
-        <v>79.0478908551989</v>
+        <v>5.407145225148599</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>78.77516109429273</v>
       </c>
       <c r="L10">
-        <v>49.47440757500331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>49.29734401868085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.009128337288944</v>
+        <v>2.859056250525942</v>
       </c>
       <c r="D11">
-        <v>6.577317146331676</v>
+        <v>6.400822982337356</v>
       </c>
       <c r="E11">
-        <v>8.268080815338704</v>
+        <v>8.19499572478764</v>
       </c>
       <c r="F11">
-        <v>55.59124579444254</v>
+        <v>55.07876665619673</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.838565174146768</v>
       </c>
       <c r="H11">
-        <v>41.90865929966453</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.661341754369088</v>
+        <v>41.50116631294471</v>
       </c>
       <c r="J11">
-        <v>82.55420096130004</v>
+        <v>5.679209676299841</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>82.2611035606725</v>
       </c>
       <c r="L11">
-        <v>51.69563491659327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>51.50566637368722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.126565306159007</v>
+        <v>2.975681221748324</v>
       </c>
       <c r="D12">
-        <v>6.755929665604918</v>
+        <v>6.577396973959237</v>
       </c>
       <c r="E12">
-        <v>8.344299175396511</v>
+        <v>8.272852783601834</v>
       </c>
       <c r="F12">
-        <v>56.89456866260861</v>
+        <v>56.36153470573322</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.829172371888404</v>
       </c>
       <c r="H12">
-        <v>42.8892332985067</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.766702380963971</v>
+        <v>42.46725215766234</v>
       </c>
       <c r="J12">
-        <v>83.89104783796132</v>
+        <v>5.784059018792112</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>83.58944478843185</v>
       </c>
       <c r="L12">
-        <v>52.54366912166709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>52.34828753980065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.101005066080678</v>
+        <v>2.950302518433562</v>
       </c>
       <c r="D13">
-        <v>6.717092465206141</v>
+        <v>6.539009223305463</v>
       </c>
       <c r="E13">
-        <v>8.327842021708227</v>
+        <v>8.256046546780937</v>
       </c>
       <c r="F13">
-        <v>56.61151018404706</v>
+        <v>56.08295840885137</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.831213359451116</v>
       </c>
       <c r="H13">
-        <v>42.67635297401539</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.743908393587398</v>
+        <v>42.25753547947946</v>
       </c>
       <c r="J13">
-        <v>83.60254818952161</v>
+        <v>5.761379158610786</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>83.30281944614002</v>
       </c>
       <c r="L13">
-        <v>52.36060244210255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>52.16641477564049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.018672544737359</v>
+        <v>2.868536521132642</v>
       </c>
       <c r="D14">
-        <v>6.591850065126263</v>
+        <v>6.415192678591517</v>
       </c>
       <c r="E14">
-        <v>8.274332963475612</v>
+        <v>8.201384400648733</v>
       </c>
       <c r="F14">
-        <v>55.69743642731051</v>
+        <v>55.18328978387466</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.837800330283525</v>
       </c>
       <c r="H14">
-        <v>41.9885905146461</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.669965357145227</v>
+        <v>41.57992409847744</v>
       </c>
       <c r="J14">
-        <v>82.6639382649233</v>
+        <v>5.687792960784457</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>82.37015949317548</v>
       </c>
       <c r="L14">
-        <v>51.76522258685485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>51.57482089607224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.968987164043785</v>
+        <v>2.819180195152921</v>
       </c>
       <c r="D15">
-        <v>6.51616053345285</v>
+        <v>6.340348387084554</v>
       </c>
       <c r="E15">
-        <v>8.24167344048244</v>
+        <v>8.168007556750306</v>
       </c>
       <c r="F15">
-        <v>55.14410539866076</v>
+        <v>54.63863620461187</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.841784868401221</v>
       </c>
       <c r="H15">
-        <v>41.57201545351963</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.624953034065037</v>
+        <v>41.16945164156435</v>
       </c>
       <c r="J15">
-        <v>82.09051894647314</v>
+        <v>5.642988185810066</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>81.80026888945864</v>
       </c>
       <c r="L15">
-        <v>51.401648331833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>51.21348890570295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.694169048536657</v>
+        <v>2.546029694867806</v>
       </c>
       <c r="D16">
-        <v>6.095892352775538</v>
+        <v>5.924579804450176</v>
       </c>
       <c r="E16">
-        <v>8.056022754245982</v>
+        <v>7.978085424318361</v>
       </c>
       <c r="F16">
-        <v>52.0599981663655</v>
+        <v>51.60260945876934</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.863957039517695</v>
       </c>
       <c r="H16">
-        <v>39.24649576078302</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5.370484325199854</v>
+        <v>38.87757484588955</v>
       </c>
       <c r="J16">
-        <v>78.81946307589656</v>
+        <v>5.389566700967315</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>78.54797432760124</v>
       </c>
       <c r="L16">
-        <v>49.32984514134905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>49.1535649999199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.533021338324724</v>
+        <v>2.385760663220615</v>
       </c>
       <c r="D17">
-        <v>5.848043913927062</v>
+        <v>5.679260048313998</v>
       </c>
       <c r="E17">
-        <v>7.94322719032506</v>
+        <v>7.862533036591829</v>
       </c>
       <c r="F17">
-        <v>50.23279597045745</v>
+        <v>49.80395516974162</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.877067813166303</v>
       </c>
       <c r="H17">
-        <v>37.86544951735529</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.216722752248097</v>
+        <v>37.51636593957702</v>
       </c>
       <c r="J17">
-        <v>76.81863465333575</v>
+        <v>5.236344065924277</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>76.55762506076586</v>
       </c>
       <c r="L17">
-        <v>48.06432954185001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>47.89464968597538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.442600525561906</v>
+        <v>2.295808481301548</v>
       </c>
       <c r="D18">
-        <v>5.708463189361975</v>
+        <v>5.541072457983789</v>
       </c>
       <c r="E18">
-        <v>7.878669913185328</v>
+        <v>7.796342201239936</v>
       </c>
       <c r="F18">
-        <v>49.20142217817882</v>
+        <v>48.78882095971875</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.884461762442824</v>
       </c>
       <c r="H18">
-        <v>37.08469006855159</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.128887435974081</v>
+        <v>36.74684548373298</v>
       </c>
       <c r="J18">
-        <v>75.66742563940446</v>
+        <v>5.148788103102024</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>75.41215099542417</v>
       </c>
       <c r="L18">
-        <v>47.33676963927036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>47.17068987317959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.412337049698635</v>
+        <v>2.26569865601052</v>
       </c>
       <c r="D19">
-        <v>5.661658638960597</v>
+        <v>5.494730897364244</v>
       </c>
       <c r="E19">
-        <v>7.856860290754552</v>
+        <v>7.773971429665895</v>
       </c>
       <c r="F19">
-        <v>48.85524020670109</v>
+        <v>48.44811958197328</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.886942699995661</v>
       </c>
       <c r="H19">
-        <v>36.82241526305285</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5.099230454126653</v>
+        <v>36.48835631671531</v>
       </c>
       <c r="J19">
-        <v>75.27737261406536</v>
+        <v>5.119221013008774</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>75.02399610045553</v>
       </c>
       <c r="L19">
-        <v>47.09035027113963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>46.9254600324583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.549931778462668</v>
+        <v>2.402581691528205</v>
       </c>
       <c r="D20">
-        <v>5.874106075865844</v>
+        <v>5.705059828728632</v>
       </c>
       <c r="E20">
-        <v>7.955199747791954</v>
+        <v>7.874804063928012</v>
       </c>
       <c r="F20">
-        <v>50.42519360053839</v>
+        <v>49.99333576917289</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.875688037498825</v>
       </c>
       <c r="H20">
-        <v>38.01099530012549</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5.233023165831435</v>
+        <v>37.65982009919539</v>
       </c>
       <c r="J20">
-        <v>77.03161503358352</v>
+        <v>5.252590420854102</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>76.76952182898465</v>
       </c>
       <c r="L20">
-        <v>48.19897777486917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>48.02861669283629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.042696164986432</v>
+        <v>2.892397638733593</v>
       </c>
       <c r="D21">
-        <v>6.628417238420098</v>
+        <v>6.451347147908566</v>
       </c>
       <c r="E21">
-        <v>8.290024895991742</v>
+        <v>8.217417342479411</v>
       </c>
       <c r="F21">
-        <v>55.96451699651682</v>
+        <v>55.44617128866185</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.835876317578872</v>
       </c>
       <c r="H21">
-        <v>42.18959622957416</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.691623745289876</v>
+        <v>41.77797340609421</v>
       </c>
       <c r="J21">
-        <v>82.93929535536347</v>
+        <v>5.709348908390795</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>82.64379393599907</v>
       </c>
       <c r="L21">
-        <v>51.9398539018428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>51.74835674254798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.396827497659212</v>
+        <v>3.243840785386802</v>
       </c>
       <c r="D22">
-        <v>7.165381692560381</v>
+        <v>6.981871335441332</v>
       </c>
       <c r="E22">
-        <v>8.513827967229618</v>
+        <v>8.445822880093116</v>
       </c>
       <c r="F22">
-        <v>59.86695377057083</v>
+        <v>59.28598998409655</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.80770387554178</v>
       </c>
       <c r="H22">
-        <v>45.12212535785617</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>6.003161486423314</v>
+        <v>44.66616762088626</v>
       </c>
       <c r="J22">
-        <v>86.8607310414767</v>
+        <v>6.019209026664401</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>86.53844154675838</v>
       </c>
       <c r="L22">
-        <v>54.42992583641318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>54.22132972931766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.204122655724345</v>
+        <v>3.052670404174384</v>
       </c>
       <c r="D23">
-        <v>6.873649074707316</v>
+        <v>6.693731558897009</v>
       </c>
       <c r="E23">
-        <v>8.393786366078151</v>
+        <v>8.323373820133099</v>
       </c>
       <c r="F23">
-        <v>57.75138448421316</v>
+        <v>57.20470902643476</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.822990725078966</v>
       </c>
       <c r="H23">
-        <v>43.53335187240861</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.835404001567937</v>
+        <v>43.10172747703156</v>
       </c>
       <c r="J23">
-        <v>84.75820788158596</v>
+        <v>5.852404389139392</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>84.45083507415254</v>
       </c>
       <c r="L23">
-        <v>53.09411151028311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>52.89505093480326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.54227974659335</v>
+        <v>2.39497019279492</v>
       </c>
       <c r="D24">
-        <v>5.862314466795322</v>
+        <v>5.693387025737755</v>
       </c>
       <c r="E24">
-        <v>7.949786069272172</v>
+        <v>7.869255598120104</v>
       </c>
       <c r="F24">
-        <v>50.33815209437344</v>
+        <v>49.90765876266153</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.876312273602057</v>
       </c>
       <c r="H24">
-        <v>37.94515360391048</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.22565205143416</v>
+        <v>37.59492451360019</v>
       </c>
       <c r="J24">
-        <v>76.93533001658238</v>
+        <v>5.245243839634623</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>76.67372759534609</v>
       </c>
       <c r="L24">
-        <v>48.13810369340523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>47.96805118657981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.913406113002631</v>
+        <v>1.769212314353397</v>
       </c>
       <c r="D25">
-        <v>4.882673151576597</v>
+        <v>4.723281031921489</v>
       </c>
       <c r="E25">
-        <v>7.48289009599698</v>
+        <v>7.389618906449158</v>
       </c>
       <c r="F25">
-        <v>43.07700146839929</v>
+        <v>42.76527410752092</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.928335718165492</v>
       </c>
       <c r="H25">
-        <v>32.42602021004509</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.589905554598138</v>
+        <v>32.15730454350963</v>
       </c>
       <c r="J25">
-        <v>68.47218911176699</v>
+        <v>4.611129081209271</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>68.24885331619571</v>
       </c>
       <c r="L25">
-        <v>42.79822966223131</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42.65200881320973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.346594752855762</v>
+        <v>6.379772826147562</v>
       </c>
       <c r="D2">
-        <v>4.051953335906545</v>
+        <v>3.20768512932083</v>
       </c>
       <c r="E2">
-        <v>7.039651396255116</v>
+        <v>5.135900231636993</v>
       </c>
       <c r="F2">
-        <v>37.83374142984481</v>
+        <v>36.59616381378856</v>
       </c>
       <c r="G2">
-        <v>1.964482610933045</v>
+        <v>2.020693774520868</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.35879519703628</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.623916075996775</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>61.82330132120172</v>
+        <v>58.63806746689326</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.767842946987486</v>
       </c>
       <c r="M2">
-        <v>38.61015336698247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.86074054705833</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.39605662525764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.09918222654316</v>
+        <v>6.347644997033494</v>
       </c>
       <c r="D3">
-        <v>3.608514471023606</v>
+        <v>3.499390684248876</v>
       </c>
       <c r="E3">
-        <v>6.803258763140649</v>
+        <v>5.394822594483728</v>
       </c>
       <c r="F3">
-        <v>34.61426312070416</v>
+        <v>34.47691143363331</v>
       </c>
       <c r="G3">
-        <v>1.988414866472911</v>
+        <v>2.043257488701426</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.84899903491812</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.758908862974106</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>57.26992633564367</v>
+        <v>54.35824405304951</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.796961972255593</v>
       </c>
       <c r="M3">
-        <v>35.75177042341686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>36.17690205855727</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.96258662602086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.279247250920178</v>
+        <v>6.34311915807923</v>
       </c>
       <c r="D4">
-        <v>3.338419428534253</v>
+        <v>3.697510278358299</v>
       </c>
       <c r="E4">
-        <v>6.658387020100112</v>
+        <v>5.553518564338869</v>
       </c>
       <c r="F4">
-        <v>32.8224216637843</v>
+        <v>33.27463117617349</v>
       </c>
       <c r="G4">
-        <v>2.003012397722508</v>
+        <v>2.057079027987892</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.41933142306864</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.849638337711635</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>54.36173280011459</v>
+        <v>51.62030663957269</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.816391157383759</v>
       </c>
       <c r="M4">
-        <v>33.92847473998129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34.51980882599657</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.18011105334494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.352558765030145</v>
+        <v>6.344707767774466</v>
       </c>
       <c r="D5">
-        <v>3.228486740879719</v>
+        <v>3.781839451796086</v>
       </c>
       <c r="E5">
-        <v>6.59942613771991</v>
+        <v>5.618300641951461</v>
       </c>
       <c r="F5">
-        <v>32.15468229722435</v>
+        <v>32.8082717424592</v>
       </c>
       <c r="G5">
-        <v>2.008958349964181</v>
+        <v>2.062720923944313</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.95225616352022</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.888358019569504</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>53.1465958598706</v>
+        <v>50.47550549406683</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.824692120007278</v>
       </c>
       <c r="M5">
-        <v>33.16715407936881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33.83062383822487</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.88431037331108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.364729655427808</v>
+        <v>6.345168277414712</v>
       </c>
       <c r="D6">
-        <v>3.210229907368217</v>
+        <v>3.796033023396566</v>
       </c>
       <c r="E6">
-        <v>6.589640809179574</v>
+        <v>5.629069263407891</v>
       </c>
       <c r="F6">
-        <v>32.04486156082007</v>
+        <v>32.73222334144776</v>
       </c>
       <c r="G6">
-        <v>2.009946073194377</v>
+        <v>2.063658794645141</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.87556492312785</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.894887303098762</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>52.94296356609076</v>
+        <v>50.28361997524231</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.826093480167278</v>
       </c>
       <c r="M6">
-        <v>33.03960096875144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33.71533352488677</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.83654365357724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.280236169895807</v>
+        <v>6.343127167893686</v>
       </c>
       <c r="D7">
-        <v>3.336936789056792</v>
+        <v>3.698634258884683</v>
       </c>
       <c r="E7">
-        <v>6.65759152593985</v>
+        <v>5.554391561982491</v>
       </c>
       <c r="F7">
-        <v>32.81334492864647</v>
+        <v>33.26824777158844</v>
       </c>
       <c r="G7">
-        <v>2.003092571766897</v>
+        <v>2.057155056749939</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.41297378240533</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.850153711592667</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>54.34546873460694</v>
+        <v>51.60498682633703</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.816501562252738</v>
       </c>
       <c r="M7">
-        <v>33.91828284562166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34.51057110285105</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.17603031014147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.251571282283877</v>
+        <v>6.36529235558643</v>
       </c>
       <c r="D8">
-        <v>3.898326989363443</v>
+        <v>3.303442936787539</v>
       </c>
       <c r="E8">
-        <v>6.958084315894403</v>
+        <v>5.225355575071246</v>
       </c>
       <c r="F8">
-        <v>36.7132431080891</v>
+        <v>35.84403673695659</v>
       </c>
       <c r="G8">
-        <v>1.972768983072838</v>
+        <v>2.028492180249615</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.48853092630665</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.668679475876104</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>60.27547291916678</v>
+        <v>57.18433393770518</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.777557322802383</v>
       </c>
       <c r="M8">
-        <v>37.63798806195078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.8990955213416</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.88058055254061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.972406845071175</v>
+        <v>6.549525038938539</v>
       </c>
       <c r="D9">
-        <v>5.040827034160354</v>
+        <v>2.767777200792552</v>
       </c>
       <c r="E9">
-        <v>7.550440584216402</v>
+        <v>4.567631190870153</v>
       </c>
       <c r="F9">
-        <v>45.10578767228642</v>
+        <v>42.09385924137127</v>
       </c>
       <c r="G9">
-        <v>1.911277104408918</v>
+        <v>1.971023038615828</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.94594478584698</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.824001262413171</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>71.11145743768357</v>
+        <v>67.32860195669436</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>4.713837469892561</v>
       </c>
       <c r="M9">
-        <v>44.45604981282145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>44.67126177720819</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.49904313758056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.5646501892532</v>
+        <v>6.804379410614986</v>
       </c>
       <c r="D10">
-        <v>5.953012228483543</v>
+        <v>3.456321309139144</v>
       </c>
       <c r="E10">
-        <v>7.991312965751907</v>
+        <v>4.058129363259589</v>
       </c>
       <c r="F10">
-        <v>51.81075062237055</v>
+        <v>47.63481420488085</v>
       </c>
       <c r="G10">
-        <v>1.862438827978391</v>
+        <v>1.926169973665632</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.03492046686496</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.407145225148599</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>78.77516109429273</v>
+        <v>74.4356717017053</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4.675345680966736</v>
       </c>
       <c r="M10">
-        <v>49.29734401868085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>49.43505567249006</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>36.96566497793923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.859056250525942</v>
+        <v>6.956265051982507</v>
       </c>
       <c r="D11">
-        <v>6.400822982337356</v>
+        <v>3.869144977267028</v>
       </c>
       <c r="E11">
-        <v>8.19499572478764</v>
+        <v>3.814555850013737</v>
       </c>
       <c r="F11">
-        <v>55.07876665619673</v>
+        <v>50.34198230693461</v>
       </c>
       <c r="G11">
-        <v>1.838565174146768</v>
+        <v>1.904569749529696</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.50116631294471</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.679209676299841</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>82.2611035606725</v>
+        <v>77.63950187527007</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.659822615937581</v>
       </c>
       <c r="M11">
-        <v>51.50566637368722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>51.58669023111091</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>39.15441273761667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.975681221748324</v>
+        <v>7.02010303143779</v>
       </c>
       <c r="D12">
-        <v>6.577396973959237</v>
+        <v>4.033562378167904</v>
       </c>
       <c r="E12">
-        <v>8.272852783601834</v>
+        <v>3.719885069979551</v>
       </c>
       <c r="F12">
-        <v>56.36153470573322</v>
+        <v>51.40268940351736</v>
       </c>
       <c r="G12">
-        <v>1.829172371888404</v>
+        <v>1.896140309927007</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.46725215766234</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.784059018792112</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>83.58944478843185</v>
+        <v>78.85412315574156</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.654249580366951</v>
       </c>
       <c r="M12">
-        <v>52.34828753980065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>52.40315518145524</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>40.0130147950613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.950302518433562</v>
+        <v>7.006050590864629</v>
       </c>
       <c r="D13">
-        <v>6.539009223305463</v>
+        <v>3.997763476357648</v>
       </c>
       <c r="E13">
-        <v>8.256046546780937</v>
+        <v>3.74039712496079</v>
       </c>
       <c r="F13">
-        <v>56.08295840885137</v>
+        <v>51.17248389077961</v>
       </c>
       <c r="G13">
-        <v>1.831213359451116</v>
+        <v>1.897968434529812</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.25753547947946</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.761379158610786</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>83.30281944614002</v>
+        <v>78.59235769204511</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.65543590352914</v>
       </c>
       <c r="M13">
-        <v>52.16641477564049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>52.22716104542997</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>39.82662524411875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.868536521132642</v>
+        <v>6.961382345080719</v>
       </c>
       <c r="D14">
-        <v>6.415192678591517</v>
+        <v>3.882499481293559</v>
       </c>
       <c r="E14">
-        <v>8.201384400648733</v>
+        <v>3.806821222590411</v>
       </c>
       <c r="F14">
-        <v>55.18328978387466</v>
+        <v>50.42847067926147</v>
       </c>
       <c r="G14">
-        <v>1.837800330283525</v>
+        <v>1.903881819731319</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.57992409847744</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.687792960784457</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>82.37015949317548</v>
+        <v>77.73936165808919</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.659357875511978</v>
       </c>
       <c r="M14">
-        <v>51.57482089607224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>51.65379969637495</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>39.22440094336407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.819180195152921</v>
+        <v>6.934885798449566</v>
       </c>
       <c r="D15">
-        <v>6.340348387084554</v>
+        <v>3.813001250746031</v>
       </c>
       <c r="E15">
-        <v>8.168007556750306</v>
+        <v>3.847164358984442</v>
       </c>
       <c r="F15">
-        <v>54.63863620461187</v>
+        <v>49.97769670064557</v>
       </c>
       <c r="G15">
-        <v>1.841784868401221</v>
+        <v>1.907468563645967</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>41.16945164156435</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.642988185810066</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>81.80026888945864</v>
+        <v>77.21726162409931</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.661800593410677</v>
       </c>
       <c r="M15">
-        <v>51.21348890570295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>51.30296034782985</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>38.859666398599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.546029694867806</v>
+        <v>6.79526716144592</v>
       </c>
       <c r="D16">
-        <v>5.924579804450176</v>
+        <v>3.430389832420519</v>
       </c>
       <c r="E16">
-        <v>7.978085424318361</v>
+        <v>4.073752659300503</v>
       </c>
       <c r="F16">
-        <v>51.60260945876934</v>
+        <v>47.46231342100845</v>
       </c>
       <c r="G16">
-        <v>1.863957039517695</v>
+        <v>1.927551517589347</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.87757484588955</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.389566700967315</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>78.54797432760124</v>
+        <v>74.22613976392903</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.676401707045414</v>
       </c>
       <c r="M16">
-        <v>49.1535649999199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>49.29443309092411</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>36.82633061240615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.385760663220615</v>
+        <v>6.719537211883512</v>
       </c>
       <c r="D17">
-        <v>5.679260048313998</v>
+        <v>3.208540452221027</v>
       </c>
       <c r="E17">
-        <v>7.862533036591829</v>
+        <v>4.209285419771231</v>
       </c>
       <c r="F17">
-        <v>49.80395516974162</v>
+        <v>45.9721291508467</v>
       </c>
       <c r="G17">
-        <v>1.877067813166303</v>
+        <v>1.939518461846375</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.51636593957702</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.236344065924277</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>76.55762506076586</v>
+        <v>72.38709438000411</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4.685880558689249</v>
       </c>
       <c r="M17">
-        <v>47.89464968597538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>48.06067783620703</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.62336260452073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.295808481301548</v>
+        <v>6.679278196042265</v>
       </c>
       <c r="D18">
-        <v>5.541072457983789</v>
+        <v>3.08533666717482</v>
       </c>
       <c r="E18">
-        <v>7.796342201239936</v>
+        <v>4.286185587060594</v>
       </c>
       <c r="F18">
-        <v>48.78882095971875</v>
+        <v>45.13188599571164</v>
       </c>
       <c r="G18">
-        <v>1.884461762442824</v>
+        <v>1.946294885336612</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.74684548373298</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.148788103102024</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>75.41215099542417</v>
+        <v>71.32614894176311</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4.691518188594366</v>
       </c>
       <c r="M18">
-        <v>47.17068987317959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>47.34930404170051</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.94564233760891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.26569865601052</v>
+        <v>6.666184202083987</v>
       </c>
       <c r="D19">
-        <v>5.494730897364244</v>
+        <v>3.044354669959725</v>
       </c>
       <c r="E19">
-        <v>7.773971429665895</v>
+        <v>4.312060080365734</v>
       </c>
       <c r="F19">
-        <v>48.44811958197328</v>
+        <v>44.85008174239513</v>
       </c>
       <c r="G19">
-        <v>1.886942699995661</v>
+        <v>1.94857287729848</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.48835631671531</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.119221013008774</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>75.02399610045553</v>
+        <v>70.96624596523201</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4.693458349374334</v>
       </c>
       <c r="M19">
-        <v>46.9254600324583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>47.10804705199444</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.71844258257679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.402581691528205</v>
+        <v>6.72725015928855</v>
       </c>
       <c r="D20">
-        <v>5.705059828728632</v>
+        <v>3.231695596017492</v>
       </c>
       <c r="E20">
-        <v>7.874804063928012</v>
+        <v>4.194971432012998</v>
       </c>
       <c r="F20">
-        <v>49.99333576917289</v>
+        <v>46.12896380966348</v>
       </c>
       <c r="G20">
-        <v>1.875688037498825</v>
+        <v>1.938256071262645</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.65982009919539</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.252590420854102</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>76.76952182898465</v>
+        <v>72.58315823756344</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>4.684852177005899</v>
       </c>
       <c r="M20">
-        <v>48.02861669283629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>48.19217044880855</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.74990864587804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.892397638733593</v>
+        <v>6.974319788614797</v>
       </c>
       <c r="D21">
-        <v>6.451347147908566</v>
+        <v>3.916121717596213</v>
       </c>
       <c r="E21">
-        <v>8.217417342479411</v>
+        <v>3.787384169333923</v>
       </c>
       <c r="F21">
-        <v>55.44617128866185</v>
+        <v>50.64595127118946</v>
       </c>
       <c r="G21">
-        <v>1.835876317578872</v>
+        <v>1.902152472536147</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.77797340609421</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.709348908390795</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>82.64379393599907</v>
+        <v>77.98981390032942</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.658197437808041</v>
       </c>
       <c r="M21">
-        <v>51.74835674254798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>51.82212536074328</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>39.40040727966941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.243840785386802</v>
+        <v>7.173506535582478</v>
       </c>
       <c r="D22">
-        <v>6.981871335441332</v>
+        <v>4.411867503044525</v>
       </c>
       <c r="E22">
-        <v>8.445822880093116</v>
+        <v>3.506242958529092</v>
       </c>
       <c r="F22">
-        <v>59.28598998409655</v>
+        <v>53.81264239273312</v>
       </c>
       <c r="G22">
-        <v>1.80770387554178</v>
+        <v>1.877037928766878</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.66616762088626</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.019209026664401</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>86.53844154675838</v>
+        <v>81.53594033225828</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.642568263882521</v>
       </c>
       <c r="M22">
-        <v>54.22132972931766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>54.20742470419812</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>41.96578473359929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.052670404174384</v>
+        <v>7.063252025487783</v>
       </c>
       <c r="D23">
-        <v>6.693731558897009</v>
+        <v>4.142197157919019</v>
       </c>
       <c r="E23">
-        <v>8.323373820133099</v>
+        <v>3.657965970803172</v>
       </c>
       <c r="F23">
-        <v>57.20470902643476</v>
+        <v>52.09887210534347</v>
       </c>
       <c r="G23">
-        <v>1.822990725078966</v>
+        <v>1.89061574240972</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>43.10172747703156</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.852404389139392</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>84.45083507415254</v>
+        <v>79.63968016130565</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.65073837751397</v>
       </c>
       <c r="M23">
-        <v>52.89505093480326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>52.93143440241066</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>40.57684588747284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.39497019279492</v>
+        <v>6.723753003156727</v>
       </c>
       <c r="D24">
-        <v>5.693387025737755</v>
+        <v>3.221213713480926</v>
       </c>
       <c r="E24">
-        <v>7.869255598120104</v>
+        <v>4.20144590945432</v>
       </c>
       <c r="F24">
-        <v>49.90765876266153</v>
+        <v>46.05800811862129</v>
       </c>
       <c r="G24">
-        <v>1.876312273602057</v>
+        <v>1.938827115111873</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.59492451360019</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.245243839634623</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>76.67372759534609</v>
+        <v>72.49452953873828</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>4.685316523854</v>
       </c>
       <c r="M24">
-        <v>47.96805118657981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>48.13272936319138</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.69265443736719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.769212314353397</v>
+        <v>6.481510819594309</v>
       </c>
       <c r="D25">
-        <v>4.723281031921489</v>
+        <v>2.871126097735868</v>
       </c>
       <c r="E25">
-        <v>7.389618906449158</v>
+        <v>4.748543117831082</v>
       </c>
       <c r="F25">
-        <v>42.76527410752092</v>
+        <v>40.17726318347938</v>
       </c>
       <c r="G25">
-        <v>1.928335718165492</v>
+        <v>1.986867086019413</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.15730454350963</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.611129081209271</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>68.24885331619571</v>
+        <v>64.65729509514784</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>4.729665575006216</v>
       </c>
       <c r="M25">
-        <v>42.65200881320973</v>
+        <v>42.88363615341652</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.95901549986253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.379772826147562</v>
+        <v>4.904769808187918</v>
       </c>
       <c r="D2">
-        <v>3.20768512932083</v>
+        <v>4.219192884190144</v>
       </c>
       <c r="E2">
-        <v>5.135900231636993</v>
+        <v>29.97063774116088</v>
       </c>
       <c r="F2">
-        <v>36.59616381378856</v>
+        <v>15.58132998904302</v>
       </c>
       <c r="G2">
-        <v>2.020693774520868</v>
+        <v>2.051574474077496</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.72649435466941</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>58.63806746689326</v>
+        <v>25.40979197855656</v>
       </c>
       <c r="L2">
-        <v>4.767842946987486</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>38.86074054705833</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.39605662525764</v>
+        <v>11.60139609567641</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.347644997033494</v>
+        <v>4.622188155926195</v>
       </c>
       <c r="D3">
-        <v>3.499390684248876</v>
+        <v>4.064463204773028</v>
       </c>
       <c r="E3">
-        <v>5.394822594483728</v>
+        <v>27.7782433738661</v>
       </c>
       <c r="F3">
-        <v>34.47691143363331</v>
+        <v>15.11437437913335</v>
       </c>
       <c r="G3">
-        <v>2.043257488701426</v>
+        <v>2.058240556582712</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.54353139381223</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>54.35824405304951</v>
+        <v>23.78914359015473</v>
       </c>
       <c r="L3">
-        <v>4.796961972255593</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>36.17690205855727</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.96258662602086</v>
+        <v>11.54604804507184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.34311915807923</v>
+        <v>4.439712834759383</v>
       </c>
       <c r="D4">
-        <v>3.697510278358299</v>
+        <v>3.966644861792761</v>
       </c>
       <c r="E4">
-        <v>5.553518564338869</v>
+        <v>26.36998082538901</v>
       </c>
       <c r="F4">
-        <v>33.27463117617349</v>
+        <v>14.85613509610753</v>
       </c>
       <c r="G4">
-        <v>2.057079027987892</v>
+        <v>2.062429965077516</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.45562799951501</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>51.62030663957269</v>
+        <v>22.73867528707236</v>
       </c>
       <c r="L4">
-        <v>4.816391157383759</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>34.51980882599657</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.18011105334494</v>
+        <v>11.5416710041333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.344707767774466</v>
+        <v>4.363118400573843</v>
       </c>
       <c r="D5">
-        <v>3.781839451796086</v>
+        <v>3.926113623685892</v>
       </c>
       <c r="E5">
-        <v>5.618300641951461</v>
+        <v>25.78011043956229</v>
       </c>
       <c r="F5">
-        <v>32.8082717424592</v>
+        <v>14.75798529046652</v>
       </c>
       <c r="G5">
-        <v>2.062720923944313</v>
+        <v>2.06416269475808</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.42569655937298</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>50.47550549406683</v>
+        <v>22.2966570044189</v>
       </c>
       <c r="L5">
-        <v>4.824692120007278</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>33.83062383822487</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.88431037331108</v>
+        <v>11.54685823841051</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.345168277414712</v>
+        <v>4.350265782303151</v>
       </c>
       <c r="D6">
-        <v>3.796033023396566</v>
+        <v>3.91934422796432</v>
       </c>
       <c r="E6">
-        <v>5.629069263407891</v>
+        <v>25.68118667776578</v>
       </c>
       <c r="F6">
-        <v>32.73222334144776</v>
+        <v>14.74211240077628</v>
       </c>
       <c r="G6">
-        <v>2.063658794645141</v>
+        <v>2.064451989496913</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.42107415890061</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>50.28361997524231</v>
+        <v>22.22241801677283</v>
       </c>
       <c r="L6">
-        <v>4.826093480167278</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>33.71533352488677</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.83654365357724</v>
+        <v>11.54812638454507</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.343127167893686</v>
+        <v>4.438688868251553</v>
       </c>
       <c r="D7">
-        <v>3.698634258884683</v>
+        <v>3.966100899684388</v>
       </c>
       <c r="E7">
-        <v>5.554391561982491</v>
+        <v>26.36209085002701</v>
       </c>
       <c r="F7">
-        <v>33.26824777158844</v>
+        <v>14.85478286002883</v>
       </c>
       <c r="G7">
-        <v>2.057155056749939</v>
+        <v>2.06245322836456</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.45520084488446</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>51.60498682633703</v>
+        <v>22.73277053724426</v>
       </c>
       <c r="L7">
-        <v>4.816501562252738</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>34.51057110285105</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.17603031014147</v>
+        <v>11.54171337636929</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.36529235558643</v>
+        <v>4.809207448317667</v>
       </c>
       <c r="D8">
-        <v>3.303442936787539</v>
+        <v>4.166447199482253</v>
       </c>
       <c r="E8">
-        <v>5.225355575071246</v>
+        <v>29.22736253000712</v>
       </c>
       <c r="F8">
-        <v>35.84403673695659</v>
+        <v>15.41438224272552</v>
       </c>
       <c r="G8">
-        <v>2.028492180249615</v>
+        <v>2.053853723453351</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.65819345024574</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>57.18433393770518</v>
+        <v>24.86246925219213</v>
       </c>
       <c r="L8">
-        <v>4.777557322802383</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>37.8990955213416</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.88058055254061</v>
+        <v>11.57588913371434</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.549525038938539</v>
+        <v>5.464078656078844</v>
       </c>
       <c r="D9">
-        <v>2.767777200792552</v>
+        <v>4.535612129303546</v>
       </c>
       <c r="E9">
-        <v>4.567631190870153</v>
+        <v>34.37145665000256</v>
       </c>
       <c r="F9">
-        <v>42.09385924137127</v>
+        <v>16.73908821607306</v>
       </c>
       <c r="G9">
-        <v>1.971023038615828</v>
+        <v>2.037692474246946</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.25983359400723</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>67.32860195669436</v>
+        <v>28.60138654759882</v>
       </c>
       <c r="L9">
-        <v>4.713837469892561</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>44.67126177720819</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.49904313758056</v>
+        <v>11.89750909510694</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.804379410614986</v>
+        <v>5.90120752486035</v>
       </c>
       <c r="D10">
-        <v>3.456321309139144</v>
+        <v>4.790911715357855</v>
       </c>
       <c r="E10">
-        <v>4.058129363259589</v>
+        <v>37.88952261990207</v>
       </c>
       <c r="F10">
-        <v>47.63481420488085</v>
+        <v>17.85123135725001</v>
       </c>
       <c r="G10">
-        <v>1.926169973665632</v>
+        <v>2.026150754973148</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.83684936168102</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>74.4356717017053</v>
+        <v>31.08604153495117</v>
       </c>
       <c r="L10">
-        <v>4.675345680966736</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>49.43505567249006</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>36.96566497793923</v>
+        <v>12.31304170657331</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.956265051982507</v>
+        <v>6.090558790924177</v>
       </c>
       <c r="D11">
-        <v>3.869144977267028</v>
+        <v>4.90339056279812</v>
       </c>
       <c r="E11">
-        <v>3.814555850013737</v>
+        <v>39.44038390790571</v>
       </c>
       <c r="F11">
-        <v>50.34198230693461</v>
+        <v>18.38723315855232</v>
       </c>
       <c r="G11">
-        <v>1.904569749529696</v>
+        <v>2.020948011726196</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.13042108611607</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>77.63950187527007</v>
+        <v>32.1607237231141</v>
       </c>
       <c r="L11">
-        <v>4.659822615937581</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>51.58669023111091</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>39.15441273761667</v>
+        <v>12.54522134852742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.02010303143779</v>
+        <v>6.160903856502116</v>
       </c>
       <c r="D12">
-        <v>4.033562378167904</v>
+        <v>4.945446584484188</v>
       </c>
       <c r="E12">
-        <v>3.719885069979551</v>
+        <v>40.02121507000637</v>
       </c>
       <c r="F12">
-        <v>51.40268940351736</v>
+        <v>18.63167855635099</v>
       </c>
       <c r="G12">
-        <v>1.896140309927007</v>
+        <v>2.018982445491079</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.28611418568713</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>78.85412315574156</v>
+        <v>32.55981114540927</v>
       </c>
       <c r="L12">
-        <v>4.654249580366951</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>52.40315518145524</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>40.0130147950613</v>
+        <v>12.63963175269803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.006050590864629</v>
+        <v>6.145814023052972</v>
       </c>
       <c r="D13">
-        <v>3.997763476357648</v>
+        <v>4.93641309146164</v>
       </c>
       <c r="E13">
-        <v>3.74039712496079</v>
+        <v>39.89639767599662</v>
       </c>
       <c r="F13">
-        <v>51.17248389077961</v>
+        <v>18.57301659479654</v>
       </c>
       <c r="G13">
-        <v>1.897968434529812</v>
+        <v>2.019405599484318</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.24084418648898</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>78.59235769204511</v>
+        <v>32.47420845083194</v>
       </c>
       <c r="L13">
-        <v>4.65543590352914</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>52.22716104542997</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>39.82662524411875</v>
+        <v>12.61900608333362</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.961382345080719</v>
+        <v>6.096373281379294</v>
       </c>
       <c r="D14">
-        <v>3.882499481293559</v>
+        <v>4.90686135225335</v>
       </c>
       <c r="E14">
-        <v>3.806821222590411</v>
+        <v>39.48829424568525</v>
       </c>
       <c r="F14">
-        <v>50.42847067926147</v>
+        <v>18.4042010447965</v>
       </c>
       <c r="G14">
-        <v>1.903881819731319</v>
+        <v>2.020786225067194</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.13985184223982</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>77.73936165808919</v>
+        <v>32.19371386815156</v>
       </c>
       <c r="L14">
-        <v>4.659357875511978</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>51.65379969637495</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.22440094336407</v>
+        <v>12.55285701577202</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.934885798449566</v>
+        <v>6.0659128330311</v>
       </c>
       <c r="D15">
-        <v>3.813001250746031</v>
+        <v>4.888689837334989</v>
       </c>
       <c r="E15">
-        <v>3.847164358984442</v>
+        <v>39.23750115937198</v>
       </c>
       <c r="F15">
-        <v>49.97769670064557</v>
+        <v>18.31564599816475</v>
       </c>
       <c r="G15">
-        <v>1.907468563645967</v>
+        <v>2.021632425792316</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.09072164780473</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>77.21726162409931</v>
+        <v>32.02088172370052</v>
       </c>
       <c r="L15">
-        <v>4.661800593410677</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>51.30296034782985</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>38.859666398599</v>
+        <v>12.5131916000579</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.79526716144592</v>
+        <v>5.888642393861766</v>
       </c>
       <c r="D16">
-        <v>3.430389832420519</v>
+        <v>4.783486276795144</v>
       </c>
       <c r="E16">
-        <v>4.073752659300503</v>
+        <v>37.78722937911115</v>
       </c>
       <c r="F16">
-        <v>47.46231342100845</v>
+        <v>17.81680735307594</v>
       </c>
       <c r="G16">
-        <v>1.927551517589347</v>
+        <v>2.026491538617547</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.81829948184178</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>74.22613976392903</v>
+        <v>31.01469989780579</v>
       </c>
       <c r="L16">
-        <v>4.676401707045414</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>49.29443309092411</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>36.82633061240615</v>
+        <v>12.29876174991956</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.719537211883512</v>
+        <v>5.77746382746499</v>
       </c>
       <c r="D17">
-        <v>3.208540452221027</v>
+        <v>4.718000839566025</v>
       </c>
       <c r="E17">
-        <v>4.209285419771231</v>
+        <v>36.88530392730019</v>
       </c>
       <c r="F17">
-        <v>45.9721291508467</v>
+        <v>17.51848508860945</v>
       </c>
       <c r="G17">
-        <v>1.939518461846375</v>
+        <v>2.029483127695512</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.65922548744183</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>72.38709438000411</v>
+        <v>30.38328204004765</v>
       </c>
       <c r="L17">
-        <v>4.685880558689249</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>48.06067783620703</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>35.62336260452073</v>
+        <v>12.17848347314604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.679278196042265</v>
+        <v>5.712621854110831</v>
       </c>
       <c r="D18">
-        <v>3.08533666717482</v>
+        <v>4.679991385879428</v>
       </c>
       <c r="E18">
-        <v>4.286185587060594</v>
+        <v>36.36183362596091</v>
       </c>
       <c r="F18">
-        <v>45.13188599571164</v>
+        <v>17.34972828366284</v>
       </c>
       <c r="G18">
-        <v>1.946294885336612</v>
+        <v>2.031208444107198</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.5706501530118</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>71.32614894176311</v>
+        <v>30.01486538551939</v>
       </c>
       <c r="L18">
-        <v>4.691518188594366</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>47.34930404170051</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.94564233760891</v>
+        <v>12.11335013315269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.666184202083987</v>
+        <v>5.690513576297702</v>
       </c>
       <c r="D19">
-        <v>3.044354669959725</v>
+        <v>4.667063382298394</v>
       </c>
       <c r="E19">
-        <v>4.312060080365734</v>
+        <v>36.1837680211623</v>
       </c>
       <c r="F19">
-        <v>44.85008174239513</v>
+        <v>17.29307655317177</v>
       </c>
       <c r="G19">
-        <v>1.94857287729848</v>
+        <v>2.031793466840818</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.54115781019006</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>70.96624596523201</v>
+        <v>29.88922206541823</v>
       </c>
       <c r="L19">
-        <v>4.693458349374334</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>47.10804705199444</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.71844258257679</v>
+        <v>12.09198293811474</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.72725015928855</v>
+        <v>5.789391558799855</v>
       </c>
       <c r="D20">
-        <v>3.231695596017492</v>
+        <v>4.725007571377464</v>
       </c>
       <c r="E20">
-        <v>4.194971432012998</v>
+        <v>36.98179793449331</v>
       </c>
       <c r="F20">
-        <v>46.12896380966348</v>
+        <v>17.54994914453832</v>
       </c>
       <c r="G20">
-        <v>1.938256071262645</v>
+        <v>2.029164203865365</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.67585611766685</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>72.58315823756344</v>
+        <v>30.45103921439356</v>
       </c>
       <c r="L20">
-        <v>4.684852177005899</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>48.19217044880855</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.74990864587804</v>
+        <v>12.19086620866069</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.974319788614797</v>
+        <v>6.110932002246808</v>
       </c>
       <c r="D21">
-        <v>3.916121717596213</v>
+        <v>4.915556061849354</v>
       </c>
       <c r="E21">
-        <v>3.787384169333923</v>
+        <v>39.60833324262921</v>
       </c>
       <c r="F21">
-        <v>50.64595127118946</v>
+        <v>18.4468185268317</v>
       </c>
       <c r="G21">
-        <v>1.902152472536147</v>
+        <v>2.020380596294958</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.16357376550313</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>77.98981390032942</v>
+        <v>32.27631447956546</v>
       </c>
       <c r="L21">
-        <v>4.658197437808041</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>51.82212536074328</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>39.40040727966941</v>
+        <v>12.57210842613328</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.173506535582478</v>
+        <v>6.313167337666786</v>
       </c>
       <c r="D22">
-        <v>4.411867503044525</v>
+        <v>5.036957001163043</v>
       </c>
       <c r="E22">
-        <v>3.506242958529092</v>
+        <v>41.28773262161992</v>
       </c>
       <c r="F22">
-        <v>53.81264239273312</v>
+        <v>19.23204295917091</v>
       </c>
       <c r="G22">
-        <v>1.877037928766878</v>
+        <v>2.014665567140247</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.74839918404909</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>81.53594033225828</v>
+        <v>33.42342704885257</v>
       </c>
       <c r="L22">
-        <v>4.642568263882521</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>54.20742470419812</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>41.96578473359929</v>
+        <v>12.97015242558599</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.063252025487783</v>
+        <v>6.205950648207057</v>
       </c>
       <c r="D23">
-        <v>4.142197157919019</v>
+        <v>4.972452232626362</v>
       </c>
       <c r="E23">
-        <v>3.657965970803172</v>
+        <v>40.3945615074072</v>
       </c>
       <c r="F23">
-        <v>52.09887210534347</v>
+        <v>18.80769762604839</v>
       </c>
       <c r="G23">
-        <v>1.89061574240972</v>
+        <v>2.017714261824316</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.42183972822804</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>79.63968016130565</v>
+        <v>32.81533759317736</v>
       </c>
       <c r="L23">
-        <v>4.65073837751397</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>52.93143440241066</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>40.57684588747284</v>
+        <v>12.70241974415413</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.723753003156727</v>
+        <v>5.78400190987942</v>
       </c>
       <c r="D24">
-        <v>3.221213713480926</v>
+        <v>4.721840951464819</v>
       </c>
       <c r="E24">
-        <v>4.20144590945432</v>
+        <v>36.93818843479688</v>
       </c>
       <c r="F24">
-        <v>46.05800811862129</v>
+        <v>17.5357156707215</v>
       </c>
       <c r="G24">
-        <v>1.938827115111873</v>
+        <v>2.029308372305417</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.66832845297057</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>72.49452953873828</v>
+        <v>30.42042304386182</v>
       </c>
       <c r="L24">
-        <v>4.685316523854</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>48.13272936319138</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.69265443736719</v>
+        <v>12.18525548617408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.481510819594309</v>
+        <v>5.294646354259347</v>
       </c>
       <c r="D25">
-        <v>2.871126097735868</v>
+        <v>4.43845356793386</v>
       </c>
       <c r="E25">
-        <v>4.748543117831082</v>
+        <v>33.02793716748708</v>
       </c>
       <c r="F25">
-        <v>40.17726318347938</v>
+        <v>16.35628653503506</v>
       </c>
       <c r="G25">
-        <v>1.986867086019413</v>
+        <v>2.041998698546919</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.07403940995035</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>64.65729509514784</v>
+        <v>27.63636217774394</v>
       </c>
       <c r="L25">
-        <v>4.729665575006216</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>42.88363615341652</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.95901549986253</v>
+        <v>11.78060595034442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.904769808187918</v>
+        <v>3.428653813143907</v>
       </c>
       <c r="D2">
-        <v>4.219192884190144</v>
+        <v>4.197205625144958</v>
       </c>
       <c r="E2">
-        <v>29.97063774116088</v>
+        <v>16.53495777370585</v>
       </c>
       <c r="F2">
-        <v>15.58132998904302</v>
+        <v>20.76517303533321</v>
       </c>
       <c r="G2">
-        <v>2.051574474077496</v>
+        <v>3.605864841484387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.72649435466941</v>
+        <v>17.56814401564761</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.40979197855656</v>
+        <v>15.72636493014739</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.60139609567641</v>
+        <v>18.55667744428348</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.622188155926195</v>
+        <v>3.293614417605482</v>
       </c>
       <c r="D3">
-        <v>4.064463204773028</v>
+        <v>4.144824697412973</v>
       </c>
       <c r="E3">
-        <v>27.7782433738661</v>
+        <v>15.59384628137735</v>
       </c>
       <c r="F3">
-        <v>15.11437437913335</v>
+        <v>20.84536960656339</v>
       </c>
       <c r="G3">
-        <v>2.058240556582712</v>
+        <v>3.608222360997135</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.54353139381223</v>
+        <v>17.66306719296511</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.78914359015473</v>
+        <v>14.93515716200372</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.54604804507184</v>
+        <v>18.68699051047287</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.439712834759383</v>
+        <v>3.207252896762447</v>
       </c>
       <c r="D4">
-        <v>3.966644861792761</v>
+        <v>4.112283030707649</v>
       </c>
       <c r="E4">
-        <v>26.36998082538901</v>
+        <v>14.99106522595756</v>
       </c>
       <c r="F4">
-        <v>14.85613509610753</v>
+        <v>20.90455136936261</v>
       </c>
       <c r="G4">
-        <v>2.062429965077516</v>
+        <v>3.609743126096295</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.45562799951501</v>
+        <v>17.72843153134192</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.73867528707236</v>
+        <v>14.42677924415592</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.5416710041333</v>
+        <v>18.77447629208043</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.363118400573843</v>
+        <v>3.171226657948233</v>
       </c>
       <c r="D5">
-        <v>3.926113623685892</v>
+        <v>4.098936811359896</v>
       </c>
       <c r="E5">
-        <v>25.78011043956229</v>
+        <v>14.73942557189082</v>
       </c>
       <c r="F5">
-        <v>14.75798529046652</v>
+        <v>20.93114534047286</v>
       </c>
       <c r="G5">
-        <v>2.06416269475808</v>
+        <v>3.610381331348258</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.42569655937298</v>
+        <v>17.75683452573088</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.2966570044189</v>
+        <v>14.2141325302032</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.54685823841051</v>
+        <v>18.81199217185208</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.350265782303151</v>
+        <v>3.165195270505747</v>
       </c>
       <c r="D6">
-        <v>3.91934422796432</v>
+        <v>4.096715835996623</v>
       </c>
       <c r="E6">
-        <v>25.68118667776578</v>
+        <v>14.69728742201884</v>
       </c>
       <c r="F6">
-        <v>14.74211240077628</v>
+        <v>20.935710159525</v>
       </c>
       <c r="G6">
-        <v>2.064451989496913</v>
+        <v>3.610488422957512</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.42107415890061</v>
+        <v>17.7616570961917</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.22241801677283</v>
+        <v>14.17849828817494</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.54812638454507</v>
+        <v>18.81833385872807</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.438688868251553</v>
+        <v>3.206770360462753</v>
       </c>
       <c r="D7">
-        <v>3.966100899684388</v>
+        <v>4.112103370413067</v>
       </c>
       <c r="E7">
-        <v>26.36209085002701</v>
+        <v>14.98769543137549</v>
       </c>
       <c r="F7">
-        <v>14.85478286002883</v>
+        <v>20.90490002709706</v>
       </c>
       <c r="G7">
-        <v>2.06245322836456</v>
+        <v>3.609751658241755</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.45520084488446</v>
+        <v>17.7288074504879</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.73277053724426</v>
+        <v>14.42393331172078</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.54171337636929</v>
+        <v>18.77497471332028</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.809207448317667</v>
+        <v>3.382826367130153</v>
       </c>
       <c r="D8">
-        <v>4.166447199482253</v>
+        <v>4.179229537353942</v>
       </c>
       <c r="E8">
-        <v>29.22736253000712</v>
+        <v>16.21578318853771</v>
       </c>
       <c r="F8">
-        <v>15.41438224272552</v>
+        <v>20.79074831529756</v>
       </c>
       <c r="G8">
-        <v>2.053853723453351</v>
+        <v>3.606662552600007</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.65819345024574</v>
+        <v>17.59939542966048</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.86246925219213</v>
+        <v>15.45834954684467</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.57588913371434</v>
+        <v>18.60004965452304</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.464078656078844</v>
+        <v>3.699465173569032</v>
       </c>
       <c r="D9">
-        <v>4.535612129303546</v>
+        <v>4.307413257287447</v>
       </c>
       <c r="E9">
-        <v>34.37145665000256</v>
+        <v>18.51611514635705</v>
       </c>
       <c r="F9">
-        <v>16.73908821607306</v>
+        <v>20.64672462897835</v>
       </c>
       <c r="G9">
-        <v>2.037692474246946</v>
+        <v>3.601182975929961</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.25983359400723</v>
+        <v>17.40242284775561</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.60138654759882</v>
+        <v>17.30069009240983</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.89750909510694</v>
+        <v>18.31696624905993</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.90120752486035</v>
+        <v>3.913245056320337</v>
       </c>
       <c r="D10">
-        <v>4.790911715357855</v>
+        <v>4.398915482970543</v>
       </c>
       <c r="E10">
-        <v>37.88952261990207</v>
+        <v>20.16501202522546</v>
       </c>
       <c r="F10">
-        <v>17.85123135725001</v>
+        <v>20.5907736480936</v>
       </c>
       <c r="G10">
-        <v>2.026150754973148</v>
+        <v>3.597505416440332</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.83684936168102</v>
+        <v>17.29316169645596</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.08604153495117</v>
+        <v>18.53328545669177</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.31304170657331</v>
+        <v>18.14642050382577</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.090558790924177</v>
+        <v>4.006173132104069</v>
       </c>
       <c r="D11">
-        <v>4.90339056279812</v>
+        <v>4.439845816406763</v>
       </c>
       <c r="E11">
-        <v>39.44038390790571</v>
+        <v>20.87294108771951</v>
       </c>
       <c r="F11">
-        <v>18.38723315855232</v>
+        <v>20.57636901032405</v>
       </c>
       <c r="G11">
-        <v>2.020948011726196</v>
+        <v>3.595907134570943</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.13042108611607</v>
+        <v>17.25132394015614</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.1607237231141</v>
+        <v>19.06662989676693</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.54522134852742</v>
+        <v>18.07715608396477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.160903856502116</v>
+        <v>4.040725540159295</v>
       </c>
       <c r="D12">
-        <v>4.945446584484188</v>
+        <v>4.455235907836013</v>
       </c>
       <c r="E12">
-        <v>40.02121507000637</v>
+        <v>21.13498986284725</v>
       </c>
       <c r="F12">
-        <v>18.63167855635099</v>
+        <v>20.57251836802848</v>
       </c>
       <c r="G12">
-        <v>2.018982445491079</v>
+        <v>3.59531257466225</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.28611418568713</v>
+        <v>17.23662543521903</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.55981114540927</v>
+        <v>19.26458711571702</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.63963175269803</v>
+        <v>18.05213948214839</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.145814023052972</v>
+        <v>4.033312639933584</v>
       </c>
       <c r="D13">
-        <v>4.93641309146164</v>
+        <v>4.451926386112201</v>
       </c>
       <c r="E13">
-        <v>39.89639767599662</v>
+        <v>21.07882055001032</v>
       </c>
       <c r="F13">
-        <v>18.57301659479654</v>
+        <v>20.5732761064693</v>
       </c>
       <c r="G13">
-        <v>2.019405599484318</v>
+        <v>3.595440149983427</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.24084418648898</v>
+        <v>17.23973990816655</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.47420845083194</v>
+        <v>19.22213278503447</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.61900608333362</v>
+        <v>18.05747307753839</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.096373281379294</v>
+        <v>4.009028637668822</v>
       </c>
       <c r="D14">
-        <v>4.90686135225335</v>
+        <v>4.441114212765981</v>
       </c>
       <c r="E14">
-        <v>39.48829424568525</v>
+        <v>20.89462062449456</v>
       </c>
       <c r="F14">
-        <v>18.4042010447965</v>
+        <v>20.57601998624033</v>
       </c>
       <c r="G14">
-        <v>2.020786225067194</v>
+        <v>3.595858006180167</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.13985184223982</v>
+        <v>17.25009167155628</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.19371386815156</v>
+        <v>19.08299666392965</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.55285701577202</v>
+        <v>18.07507356311419</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.0659128330311</v>
+        <v>3.994070538924633</v>
       </c>
       <c r="D15">
-        <v>4.888689837334989</v>
+        <v>4.434476930376176</v>
       </c>
       <c r="E15">
-        <v>39.23750115937198</v>
+        <v>20.78100876459984</v>
       </c>
       <c r="F15">
-        <v>18.31564599816475</v>
+        <v>20.5779100143297</v>
       </c>
       <c r="G15">
-        <v>2.021632425792316</v>
+        <v>3.596115343526538</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.09072164780473</v>
+        <v>17.25658187031625</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.02088172370052</v>
+        <v>18.99724779868241</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.5131916000579</v>
+        <v>18.08601273216921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.888642393861766</v>
+        <v>3.907083602527341</v>
       </c>
       <c r="D16">
-        <v>4.783486276795144</v>
+        <v>4.396225796924556</v>
       </c>
       <c r="E16">
-        <v>37.78722937911115</v>
+        <v>20.11790171834724</v>
       </c>
       <c r="F16">
-        <v>17.81680735307594</v>
+        <v>20.59193869820396</v>
       </c>
       <c r="G16">
-        <v>2.026491538617547</v>
+        <v>3.597611365013275</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.81829948184178</v>
+        <v>17.29605533260617</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.01469989780579</v>
+        <v>18.49787281216906</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.29876174991956</v>
+        <v>18.15111585972585</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.77746382746499</v>
+        <v>3.852600899032085</v>
       </c>
       <c r="D17">
-        <v>4.718000839566025</v>
+        <v>4.372575241262691</v>
       </c>
       <c r="E17">
-        <v>36.88530392730019</v>
+        <v>19.70033270111419</v>
       </c>
       <c r="F17">
-        <v>17.51848508860945</v>
+        <v>20.60338603836519</v>
       </c>
       <c r="G17">
-        <v>2.029483127695512</v>
+        <v>3.59854820402669</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.65922548744183</v>
+        <v>17.32229535250751</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.38328204004765</v>
+        <v>18.18445563412864</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.17848347314604</v>
+        <v>18.19319644957586</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.712621854110831</v>
+        <v>3.820857918509836</v>
       </c>
       <c r="D18">
-        <v>4.679991385879428</v>
+        <v>4.358907243644535</v>
       </c>
       <c r="E18">
-        <v>36.36183362596091</v>
+        <v>19.45618748427571</v>
       </c>
       <c r="F18">
-        <v>17.34972828366284</v>
+        <v>20.61100931146381</v>
       </c>
       <c r="G18">
-        <v>2.031208444107198</v>
+        <v>3.599094079882974</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.5706501530118</v>
+        <v>17.33812749802096</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.01486538551939</v>
+        <v>18.0016135462065</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.11335013315269</v>
+        <v>18.21818202031683</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.690513576297702</v>
+        <v>3.81004109441491</v>
       </c>
       <c r="D19">
-        <v>4.667063382298394</v>
+        <v>4.354268655296096</v>
       </c>
       <c r="E19">
-        <v>36.1837680211623</v>
+        <v>19.37284111248917</v>
       </c>
       <c r="F19">
-        <v>17.29307655317177</v>
+        <v>20.61376837862345</v>
       </c>
       <c r="G19">
-        <v>2.031793466840818</v>
+        <v>3.599280113484865</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.54115781019006</v>
+        <v>17.34361459555156</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.88922206541823</v>
+        <v>17.93926694801618</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.09198293811474</v>
+        <v>18.2267755066528</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.789391558799855</v>
+        <v>3.858442816175825</v>
       </c>
       <c r="D20">
-        <v>4.725007571377464</v>
+        <v>4.375099662027503</v>
       </c>
       <c r="E20">
-        <v>36.98179793449331</v>
+        <v>19.74519432399623</v>
       </c>
       <c r="F20">
-        <v>17.54994914453832</v>
+        <v>20.60205979227191</v>
       </c>
       <c r="G20">
-        <v>2.029164203865365</v>
+        <v>3.598447748695238</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.67585611766685</v>
+        <v>17.31942541493902</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.45103921439356</v>
+        <v>18.21808628107035</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.19086620866069</v>
+        <v>18.18863585477916</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.110932002246808</v>
+        <v>4.016178853054811</v>
       </c>
       <c r="D21">
-        <v>4.915556061849354</v>
+        <v>4.444293051275302</v>
       </c>
       <c r="E21">
-        <v>39.60833324262921</v>
+        <v>20.94888794976723</v>
       </c>
       <c r="F21">
-        <v>18.4468185268317</v>
+        <v>20.57517039490458</v>
       </c>
       <c r="G21">
-        <v>2.020380596294958</v>
+        <v>3.59573498246128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.16357376550313</v>
+        <v>17.24701994023225</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.27631447956546</v>
+        <v>19.12397362118712</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.57210842613328</v>
+        <v>18.06987084207482</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.313167337666786</v>
+        <v>4.115547252000877</v>
       </c>
       <c r="D22">
-        <v>5.036957001163043</v>
+        <v>4.488873489578165</v>
       </c>
       <c r="E22">
-        <v>41.28773262161992</v>
+        <v>21.70044780664067</v>
       </c>
       <c r="F22">
-        <v>19.23204295917091</v>
+        <v>20.56695215408519</v>
       </c>
       <c r="G22">
-        <v>2.014665567140247</v>
+        <v>3.594024225379856</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.74839918404909</v>
+        <v>17.20637594641607</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.42342704885257</v>
+        <v>19.69263331474004</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.97015242558599</v>
+        <v>17.9993249551686</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.205950648207057</v>
+        <v>4.062857625273473</v>
       </c>
       <c r="D23">
-        <v>4.972452232626362</v>
+        <v>4.465141798887394</v>
       </c>
       <c r="E23">
-        <v>40.3945615074072</v>
+        <v>21.30252869207489</v>
       </c>
       <c r="F23">
-        <v>18.80769762604839</v>
+        <v>20.5704777774464</v>
       </c>
       <c r="G23">
-        <v>2.017714261824316</v>
+        <v>3.594931618113616</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.42183972822804</v>
+        <v>17.22745313191837</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.81533759317736</v>
+        <v>19.39128957541228</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.70241974415413</v>
+        <v>18.03632399437957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.78400190987942</v>
+        <v>3.855802992867437</v>
       </c>
       <c r="D24">
-        <v>4.721840951464819</v>
+        <v>4.373958591743526</v>
       </c>
       <c r="E24">
-        <v>36.93818843479688</v>
+        <v>19.72492509313609</v>
       </c>
       <c r="F24">
-        <v>17.5357156707215</v>
+        <v>20.60265614345742</v>
       </c>
       <c r="G24">
-        <v>2.029308372305417</v>
+        <v>3.598493141885758</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.66832845297057</v>
+        <v>17.32072058974025</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.42042304386182</v>
+        <v>18.20289012770191</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.18525548617408</v>
+        <v>18.19069523115418</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.294646354259347</v>
+        <v>3.617028238066258</v>
       </c>
       <c r="D25">
-        <v>4.43845356793386</v>
+        <v>4.273165491433433</v>
       </c>
       <c r="E25">
-        <v>33.02793716748708</v>
+        <v>17.871277199407</v>
       </c>
       <c r="F25">
-        <v>16.35628653503506</v>
+        <v>20.67701078048399</v>
       </c>
       <c r="G25">
-        <v>2.041998698546919</v>
+        <v>3.602603883778994</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.07403940995035</v>
+        <v>17.44954134085635</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.63636217774394</v>
+        <v>16.82308409790143</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.78060595034442</v>
+        <v>18.38703852872271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.428653813143907</v>
+        <v>4.90476980818779</v>
       </c>
       <c r="D2">
-        <v>4.197205625144958</v>
+        <v>4.219192884190237</v>
       </c>
       <c r="E2">
-        <v>16.53495777370585</v>
+        <v>29.97063774116086</v>
       </c>
       <c r="F2">
-        <v>20.76517303533321</v>
+        <v>15.58132998904297</v>
       </c>
       <c r="G2">
-        <v>3.605864841484387</v>
+        <v>2.051574474077496</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.56814401564761</v>
+        <v>11.72649435466942</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.72636493014739</v>
+        <v>25.40979197855658</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.55667744428348</v>
+        <v>11.6013960956764</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.293614417605482</v>
+        <v>4.6221881559263</v>
       </c>
       <c r="D3">
-        <v>4.144824697412973</v>
+        <v>4.064463204773133</v>
       </c>
       <c r="E3">
-        <v>15.59384628137735</v>
+        <v>27.77824337386614</v>
       </c>
       <c r="F3">
-        <v>20.84536960656339</v>
+        <v>15.11437437913328</v>
       </c>
       <c r="G3">
-        <v>3.608222360997135</v>
+        <v>2.058240556582577</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.66306719296511</v>
+        <v>11.54353139381218</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.93515716200372</v>
+        <v>23.78914359015475</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.68699051047287</v>
+        <v>11.54604804507176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.207252896762447</v>
+        <v>4.439712834759383</v>
       </c>
       <c r="D4">
-        <v>4.112283030707649</v>
+        <v>3.966644861792775</v>
       </c>
       <c r="E4">
-        <v>14.99106522595756</v>
+        <v>26.36998082538897</v>
       </c>
       <c r="F4">
-        <v>20.90455136936261</v>
+        <v>14.85613509610753</v>
       </c>
       <c r="G4">
-        <v>3.609743126096295</v>
+        <v>2.062429965077516</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.72843153134192</v>
+        <v>11.45562799951502</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.42677924415592</v>
+        <v>22.73867528707237</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.77447629208043</v>
+        <v>11.5416710041333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.171226657948233</v>
+        <v>4.363118400573952</v>
       </c>
       <c r="D5">
-        <v>4.098936811359896</v>
+        <v>3.926113623685925</v>
       </c>
       <c r="E5">
-        <v>14.73942557189082</v>
+        <v>25.78011043956238</v>
       </c>
       <c r="F5">
-        <v>20.93114534047286</v>
+        <v>14.75798529046634</v>
       </c>
       <c r="G5">
-        <v>3.610381331348258</v>
+        <v>2.06416269475808</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.75683452573088</v>
+        <v>11.42569655937289</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.2141325302032</v>
+        <v>22.29665700441894</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.81199217185208</v>
+        <v>11.5468582384104</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.165195270505747</v>
+        <v>4.35026578230309</v>
       </c>
       <c r="D6">
-        <v>4.096715835996623</v>
+        <v>3.919344227964269</v>
       </c>
       <c r="E6">
-        <v>14.69728742201884</v>
+        <v>25.68118667776583</v>
       </c>
       <c r="F6">
-        <v>20.935710159525</v>
+        <v>14.74211240077622</v>
       </c>
       <c r="G6">
-        <v>3.610488422957512</v>
+        <v>2.06445198949678</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.7616570961917</v>
+        <v>11.42107415890055</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.17849828817494</v>
+        <v>22.22241801677283</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.81833385872807</v>
+        <v>11.54812638454498</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.206770360462753</v>
+        <v>4.438688868251479</v>
       </c>
       <c r="D7">
-        <v>4.112103370413067</v>
+        <v>3.966100899684432</v>
       </c>
       <c r="E7">
-        <v>14.98769543137549</v>
+        <v>26.3620908500271</v>
       </c>
       <c r="F7">
-        <v>20.90490002709706</v>
+        <v>14.85478286002865</v>
       </c>
       <c r="G7">
-        <v>3.609751658241755</v>
+        <v>2.062453228364426</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.7288074504879</v>
+        <v>11.45520084488433</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.42393331172078</v>
+        <v>22.73277053724432</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.77497471332028</v>
+        <v>11.54171337636915</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.382826367130153</v>
+        <v>4.809207448317538</v>
       </c>
       <c r="D8">
-        <v>4.179229537353942</v>
+        <v>4.166447199482239</v>
       </c>
       <c r="E8">
-        <v>16.21578318853771</v>
+        <v>29.22736253000705</v>
       </c>
       <c r="F8">
-        <v>20.79074831529756</v>
+        <v>15.41438224272556</v>
       </c>
       <c r="G8">
-        <v>3.606662552600007</v>
+        <v>2.053853723453084</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.59939542966048</v>
+        <v>11.65819345024581</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.45834954684467</v>
+        <v>24.86246925219208</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.60004965452304</v>
+        <v>11.57588913371438</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.699465173569032</v>
+        <v>5.464078656078779</v>
       </c>
       <c r="D9">
-        <v>4.307413257287447</v>
+        <v>4.535612129303508</v>
       </c>
       <c r="E9">
-        <v>18.51611514635705</v>
+        <v>34.3714566500026</v>
       </c>
       <c r="F9">
-        <v>20.64672462897835</v>
+        <v>16.73908821607306</v>
       </c>
       <c r="G9">
-        <v>3.601182975929961</v>
+        <v>2.037692474246946</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.40242284775561</v>
+        <v>12.2598335940072</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.30069009240983</v>
+        <v>28.60138654759884</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.31696624905993</v>
+        <v>11.89750909510691</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.913245056320337</v>
+        <v>5.901207524860349</v>
       </c>
       <c r="D10">
-        <v>4.398915482970543</v>
+        <v>4.790911715357939</v>
       </c>
       <c r="E10">
-        <v>20.16501202522546</v>
+        <v>37.88952261990197</v>
       </c>
       <c r="F10">
-        <v>20.5907736480936</v>
+        <v>17.85123135725003</v>
       </c>
       <c r="G10">
-        <v>3.597505416440332</v>
+        <v>2.026150754973148</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.29316169645596</v>
+        <v>12.83684936168101</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.53328545669177</v>
+        <v>31.08604153495122</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.14642050382577</v>
+        <v>12.31304170657331</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.006173132104069</v>
+        <v>6.090558790924285</v>
       </c>
       <c r="D11">
-        <v>4.439845816406763</v>
+        <v>4.903390562798245</v>
       </c>
       <c r="E11">
-        <v>20.87294108771951</v>
+        <v>39.44038390790563</v>
       </c>
       <c r="F11">
-        <v>20.57636901032405</v>
+        <v>18.38723315855228</v>
       </c>
       <c r="G11">
-        <v>3.595907134570943</v>
+        <v>2.020948011726062</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.25132394015614</v>
+        <v>13.13042108611606</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.06662989676693</v>
+        <v>32.16072372311409</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.07715608396477</v>
+        <v>12.54522134852742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.040725540159295</v>
+        <v>6.160903856502063</v>
       </c>
       <c r="D12">
-        <v>4.455235907836013</v>
+        <v>4.945446584484186</v>
       </c>
       <c r="E12">
-        <v>21.13498986284725</v>
+        <v>40.02121507000632</v>
       </c>
       <c r="F12">
-        <v>20.57251836802848</v>
+        <v>18.63167855635101</v>
       </c>
       <c r="G12">
-        <v>3.59531257466225</v>
+        <v>2.018982445491213</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.23662543521903</v>
+        <v>13.28611418568715</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.26458711571702</v>
+        <v>32.55981114540928</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.05213948214839</v>
+        <v>12.63963175269804</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.033312639933584</v>
+        <v>6.145814023052972</v>
       </c>
       <c r="D13">
-        <v>4.451926386112201</v>
+        <v>4.936413091461657</v>
       </c>
       <c r="E13">
-        <v>21.07882055001032</v>
+        <v>39.89639767599657</v>
       </c>
       <c r="F13">
-        <v>20.5732761064693</v>
+        <v>18.57301659479654</v>
       </c>
       <c r="G13">
-        <v>3.595440149983427</v>
+        <v>2.019405599484184</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.23973990816655</v>
+        <v>13.24084418648897</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.22213278503447</v>
+        <v>32.47420845083192</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.05747307753839</v>
+        <v>12.61900608333362</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.009028637668822</v>
+        <v>6.096373281379218</v>
       </c>
       <c r="D14">
-        <v>4.441114212765981</v>
+        <v>4.906861352253367</v>
       </c>
       <c r="E14">
-        <v>20.89462062449456</v>
+        <v>39.48829424568508</v>
       </c>
       <c r="F14">
-        <v>20.57601998624033</v>
+        <v>18.40420104479653</v>
       </c>
       <c r="G14">
-        <v>3.595858006180167</v>
+        <v>2.020786225066793</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.25009167155628</v>
+        <v>13.13985184223984</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.08299666392965</v>
+        <v>32.19371386815161</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.07507356311419</v>
+        <v>12.55285701577202</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.994070538924633</v>
+        <v>6.06591283303121</v>
       </c>
       <c r="D15">
-        <v>4.434476930376176</v>
+        <v>4.888689837334982</v>
       </c>
       <c r="E15">
-        <v>20.78100876459984</v>
+        <v>39.23750115937196</v>
       </c>
       <c r="F15">
-        <v>20.5779100143297</v>
+        <v>18.31564599816478</v>
       </c>
       <c r="G15">
-        <v>3.596115343526538</v>
+        <v>2.021632425792318</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.25658187031625</v>
+        <v>13.09072164780474</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.99724779868241</v>
+        <v>32.02088172370053</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.08601273216921</v>
+        <v>12.51319160005791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.907083602527341</v>
+        <v>5.888642393861847</v>
       </c>
       <c r="D16">
-        <v>4.396225796924556</v>
+        <v>4.783486276795211</v>
       </c>
       <c r="E16">
-        <v>20.11790171834724</v>
+        <v>37.78722937911114</v>
       </c>
       <c r="F16">
-        <v>20.59193869820396</v>
+        <v>17.81680735307593</v>
       </c>
       <c r="G16">
-        <v>3.597611365013275</v>
+        <v>2.026491538617413</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.29605533260617</v>
+        <v>12.81829948184177</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.49787281216906</v>
+        <v>31.01469989780575</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.15111585972585</v>
+        <v>12.29876174991956</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.852600899032085</v>
+        <v>5.777463827465056</v>
       </c>
       <c r="D17">
-        <v>4.372575241262691</v>
+        <v>4.718000839566066</v>
       </c>
       <c r="E17">
-        <v>19.70033270111419</v>
+        <v>36.88530392730022</v>
       </c>
       <c r="F17">
-        <v>20.60338603836519</v>
+        <v>17.51848508860942</v>
       </c>
       <c r="G17">
-        <v>3.59854820402669</v>
+        <v>2.029483127695511</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.32229535250751</v>
+        <v>12.65922548744181</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.18445563412864</v>
+        <v>30.38328204004769</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.19319644957586</v>
+        <v>12.178483473146</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.820857918509836</v>
+        <v>5.712621854110863</v>
       </c>
       <c r="D18">
-        <v>4.358907243644535</v>
+        <v>4.679991385879444</v>
       </c>
       <c r="E18">
-        <v>19.45618748427571</v>
+        <v>36.36183362596085</v>
       </c>
       <c r="F18">
-        <v>20.61100931146381</v>
+        <v>17.34972828366283</v>
       </c>
       <c r="G18">
-        <v>3.599094079882974</v>
+        <v>2.03120844410733</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.33812749802096</v>
+        <v>12.57065015301178</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.0016135462065</v>
+        <v>30.01486538551937</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.21818202031683</v>
+        <v>12.1133501331527</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.81004109441491</v>
+        <v>5.690513576297702</v>
       </c>
       <c r="D19">
-        <v>4.354268655296096</v>
+        <v>4.66706338229838</v>
       </c>
       <c r="E19">
-        <v>19.37284111248917</v>
+        <v>36.18376802116235</v>
       </c>
       <c r="F19">
-        <v>20.61376837862345</v>
+        <v>17.29307655317181</v>
       </c>
       <c r="G19">
-        <v>3.599280113484865</v>
+        <v>2.031793466840953</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.34361459555156</v>
+        <v>12.54115781019011</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.93926694801618</v>
+        <v>29.88922206541821</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.2267755066528</v>
+        <v>12.09198293811477</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.858442816175825</v>
+        <v>5.789391558799903</v>
       </c>
       <c r="D20">
-        <v>4.375099662027503</v>
+        <v>4.725007571377504</v>
       </c>
       <c r="E20">
-        <v>19.74519432399623</v>
+        <v>36.98179793449333</v>
       </c>
       <c r="F20">
-        <v>20.60205979227191</v>
+        <v>17.54994914453823</v>
       </c>
       <c r="G20">
-        <v>3.598447748695238</v>
+        <v>2.029164203865498</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.31942541493902</v>
+        <v>12.67585611766681</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.21808628107035</v>
+        <v>30.45103921439359</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.18863585477916</v>
+        <v>12.19086620866064</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.016178853054811</v>
+        <v>6.110932002246791</v>
       </c>
       <c r="D21">
-        <v>4.444293051275302</v>
+        <v>4.915556061849409</v>
       </c>
       <c r="E21">
-        <v>20.94888794976723</v>
+        <v>39.60833324262916</v>
       </c>
       <c r="F21">
-        <v>20.57517039490458</v>
+        <v>18.44681852683171</v>
       </c>
       <c r="G21">
-        <v>3.59573498246128</v>
+        <v>2.020380596294959</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.24701994023225</v>
+        <v>13.16357376550313</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.12397362118712</v>
+        <v>32.27631447956546</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.06987084207482</v>
+        <v>12.57210842613328</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.115547252000877</v>
+        <v>6.313167337666766</v>
       </c>
       <c r="D22">
-        <v>4.488873489578165</v>
+        <v>5.036957001163051</v>
       </c>
       <c r="E22">
-        <v>21.70044780664067</v>
+        <v>41.28773262161995</v>
       </c>
       <c r="F22">
-        <v>20.56695215408519</v>
+        <v>19.23204295917102</v>
       </c>
       <c r="G22">
-        <v>3.594024225379856</v>
+        <v>2.01466556714038</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.20637594641607</v>
+        <v>13.74839918404921</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.69263331474004</v>
+        <v>33.42342704885263</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.9993249551686</v>
+        <v>12.9701524255861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.062857625273473</v>
+        <v>6.205950648207057</v>
       </c>
       <c r="D23">
-        <v>4.465141798887394</v>
+        <v>4.97245223262643</v>
       </c>
       <c r="E23">
-        <v>21.30252869207489</v>
+        <v>40.39456150740725</v>
       </c>
       <c r="F23">
-        <v>20.5704777774464</v>
+        <v>18.80769762604852</v>
       </c>
       <c r="G23">
-        <v>3.594931618113616</v>
+        <v>2.017714261824315</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.22745313191837</v>
+        <v>13.42183972822816</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.39128957541228</v>
+        <v>32.8153375931774</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.03632399437957</v>
+        <v>12.70241974415413</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.855802992867437</v>
+        <v>5.784001909879452</v>
       </c>
       <c r="D24">
-        <v>4.373958591743526</v>
+        <v>4.721840951464819</v>
       </c>
       <c r="E24">
-        <v>19.72492509313609</v>
+        <v>36.93818843479685</v>
       </c>
       <c r="F24">
-        <v>20.60265614345742</v>
+        <v>17.53571567072151</v>
       </c>
       <c r="G24">
-        <v>3.598493141885758</v>
+        <v>2.029308372305415</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.32072058974025</v>
+        <v>12.66832845297057</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.20289012770191</v>
+        <v>30.4204230438618</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.19069523115418</v>
+        <v>12.18525548617408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.617028238066258</v>
+        <v>5.294646354259278</v>
       </c>
       <c r="D25">
-        <v>4.273165491433433</v>
+        <v>4.438453567933883</v>
       </c>
       <c r="E25">
-        <v>17.871277199407</v>
+        <v>33.02793716748713</v>
       </c>
       <c r="F25">
-        <v>20.67701078048399</v>
+        <v>16.35628653503508</v>
       </c>
       <c r="G25">
-        <v>3.602603883778994</v>
+        <v>2.041998698546915</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.44954134085635</v>
+        <v>12.0740394099504</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.82308409790143</v>
+        <v>27.63636217774392</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.38703852872271</v>
+        <v>11.78060595034449</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.90476980818779</v>
+        <v>9.545380663796101</v>
       </c>
       <c r="D2">
-        <v>4.219192884190237</v>
+        <v>5.468193488069191</v>
       </c>
       <c r="E2">
-        <v>29.97063774116086</v>
+        <v>9.33657383404125</v>
       </c>
       <c r="F2">
-        <v>15.58132998904297</v>
+        <v>16.10416015416874</v>
       </c>
       <c r="G2">
-        <v>2.051574474077496</v>
+        <v>19.1653965222818</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.895019562154712</v>
       </c>
       <c r="I2">
-        <v>11.72649435466942</v>
+        <v>2.642750683232702</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.40328589287803</v>
       </c>
       <c r="K2">
-        <v>25.40979197855658</v>
+        <v>14.90448130281503</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>20.87795430184737</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.884151105206108</v>
       </c>
       <c r="O2">
-        <v>11.6013960956764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.46190489083155</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.24348574106201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.6221881559263</v>
+        <v>9.198860449964016</v>
       </c>
       <c r="D3">
-        <v>4.064463204773133</v>
+        <v>5.24304942548682</v>
       </c>
       <c r="E3">
-        <v>27.77824337386614</v>
+        <v>9.136486517093001</v>
       </c>
       <c r="F3">
-        <v>15.11437437913328</v>
+        <v>15.95381228384401</v>
       </c>
       <c r="G3">
-        <v>2.058240556582577</v>
+        <v>19.08735405636335</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.08841372140613</v>
       </c>
       <c r="I3">
-        <v>11.54353139381218</v>
+        <v>2.481393101454961</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.482725311043744</v>
       </c>
       <c r="K3">
-        <v>23.78914359015475</v>
+        <v>14.87408547664699</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>19.59519404106506</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.849519979552933</v>
       </c>
       <c r="O3">
-        <v>11.54604804507176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.51582178469006</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.33063266194892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.439712834759383</v>
+        <v>8.974988475510328</v>
       </c>
       <c r="D4">
-        <v>3.966644861792775</v>
+        <v>5.099524214978182</v>
       </c>
       <c r="E4">
-        <v>26.36998082538897</v>
+        <v>9.009946216244565</v>
       </c>
       <c r="F4">
-        <v>14.85613509610753</v>
+        <v>15.87210149101839</v>
       </c>
       <c r="G4">
-        <v>2.062429965077516</v>
+        <v>19.0562888353151</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.21143901120651</v>
       </c>
       <c r="I4">
-        <v>11.45562799951502</v>
+        <v>2.568307811762126</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.534919371119177</v>
       </c>
       <c r="K4">
-        <v>22.73867528707237</v>
+        <v>14.86024542743653</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>18.76250588151293</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.828176248915141</v>
       </c>
       <c r="O4">
-        <v>11.5416710041333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.90353601421526</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.39202854880872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.363118400573952</v>
+        <v>8.871710485163199</v>
       </c>
       <c r="D5">
-        <v>3.926113623685925</v>
+        <v>5.041321533415459</v>
       </c>
       <c r="E5">
-        <v>25.78011043956238</v>
+        <v>8.955019062081702</v>
       </c>
       <c r="F5">
-        <v>14.75798529046634</v>
+        <v>15.8348426943065</v>
       </c>
       <c r="G5">
-        <v>2.06416269475808</v>
+        <v>19.03638681699066</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.263024027813621</v>
       </c>
       <c r="I5">
-        <v>11.42569655937289</v>
+        <v>2.616396923598856</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.555337781122233</v>
       </c>
       <c r="K5">
-        <v>22.29665700441894</v>
+        <v>14.84934472587393</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>18.41216031817062</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.819706216662993</v>
       </c>
       <c r="O5">
-        <v>11.5468582384104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.64459256836421</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.41456490266365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.35026578230309</v>
+        <v>8.842995305183605</v>
       </c>
       <c r="D6">
-        <v>3.919344227964269</v>
+        <v>5.03350442271763</v>
       </c>
       <c r="E6">
-        <v>25.68118667776583</v>
+        <v>8.942828161067469</v>
       </c>
       <c r="F6">
-        <v>14.74211240077622</v>
+        <v>15.82076626102238</v>
       </c>
       <c r="G6">
-        <v>2.06445198949678</v>
+        <v>19.01949586145237</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.272095992638758</v>
       </c>
       <c r="I6">
-        <v>11.42107415890055</v>
+        <v>2.628598711052417</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.556717116551187</v>
       </c>
       <c r="K6">
-        <v>22.22241801677283</v>
+        <v>14.83973107190313</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>18.35361318868571</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.818606891546574</v>
       </c>
       <c r="O6">
-        <v>11.54812638454498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.59910977071111</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.41306206967353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.438688868251479</v>
+        <v>8.942813466119469</v>
       </c>
       <c r="D7">
-        <v>3.966100899684432</v>
+        <v>5.103941250371557</v>
       </c>
       <c r="E7">
-        <v>26.3620908500271</v>
+        <v>9.001043918303347</v>
       </c>
       <c r="F7">
-        <v>14.85478286002865</v>
+        <v>15.84968330103698</v>
       </c>
       <c r="G7">
-        <v>2.062453228364426</v>
+        <v>19.01828531070505</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.213311624219144</v>
       </c>
       <c r="I7">
-        <v>11.45520084488433</v>
+        <v>2.57995299263297</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.529564496076958</v>
       </c>
       <c r="K7">
-        <v>22.73277053724432</v>
+        <v>14.83861078049328</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>18.7586475116505</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.828912358696362</v>
       </c>
       <c r="O7">
-        <v>11.54171337636915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.89466974675526</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.37768650615475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.809207448317538</v>
+        <v>9.389198452497448</v>
       </c>
       <c r="D8">
-        <v>4.166447199482239</v>
+        <v>5.398300333594664</v>
       </c>
       <c r="E8">
-        <v>29.22736253000705</v>
+        <v>9.257912815525831</v>
       </c>
       <c r="F8">
-        <v>15.41438224272556</v>
+        <v>16.02149435597914</v>
       </c>
       <c r="G8">
-        <v>2.053853723453084</v>
+        <v>19.08532377801054</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.962296935540058</v>
       </c>
       <c r="I8">
-        <v>11.65819345024581</v>
+        <v>2.590517630679313</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.422510947747758</v>
       </c>
       <c r="K8">
-        <v>24.86246925219208</v>
+        <v>14.86471181391395</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>20.4460688988825</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.87338780361006</v>
       </c>
       <c r="O8">
-        <v>11.57588913371438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.13558141973886</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.25246075932544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.464078656078779</v>
+        <v>10.22542317782876</v>
       </c>
       <c r="D9">
-        <v>4.535612129303508</v>
+        <v>5.923214747414541</v>
       </c>
       <c r="E9">
-        <v>34.3714566500026</v>
+        <v>9.744990021045846</v>
       </c>
       <c r="F9">
-        <v>16.73908821607306</v>
+        <v>16.4828871256525</v>
       </c>
       <c r="G9">
-        <v>2.037692474246946</v>
+        <v>19.42470906060026</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.618289288789378</v>
       </c>
       <c r="I9">
-        <v>12.2598335940072</v>
+        <v>2.973375340222338</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.250950346091654</v>
       </c>
       <c r="K9">
-        <v>28.60138654759884</v>
+        <v>14.99375854407445</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>23.39447342096438</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.95850322840616</v>
       </c>
       <c r="O9">
-        <v>11.89750909510691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.32520694438966</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.09963418813588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.901207524860349</v>
+        <v>10.68452275919555</v>
       </c>
       <c r="D10">
-        <v>4.790911715357939</v>
+        <v>6.304954355092344</v>
       </c>
       <c r="E10">
-        <v>37.88952261990197</v>
+        <v>9.943807944561685</v>
       </c>
       <c r="F10">
-        <v>17.85123135725003</v>
+        <v>16.76479680540783</v>
       </c>
       <c r="G10">
-        <v>2.026150754973148</v>
+        <v>19.57311932247389</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.922585788230583</v>
       </c>
       <c r="I10">
-        <v>12.83684936168101</v>
+        <v>3.236655763900651</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.113260974405888</v>
       </c>
       <c r="K10">
-        <v>31.08604153495122</v>
+        <v>15.01366190995333</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>25.36099064597946</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.966172093426271</v>
       </c>
       <c r="O10">
-        <v>12.31304170657331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.6863567066078</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.95398758541901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.090558790924285</v>
+        <v>10.13882690640406</v>
       </c>
       <c r="D11">
-        <v>4.903390562798245</v>
+        <v>6.671779391420972</v>
       </c>
       <c r="E11">
-        <v>39.44038390790563</v>
+        <v>8.965719890571513</v>
       </c>
       <c r="F11">
-        <v>18.38723315855228</v>
+        <v>15.99605516642805</v>
       </c>
       <c r="G11">
-        <v>2.020948011726062</v>
+        <v>18.06862504846035</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.833713661760457</v>
       </c>
       <c r="I11">
-        <v>13.13042108611606</v>
+        <v>3.317480752175591</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.806331826979769</v>
       </c>
       <c r="K11">
-        <v>32.16072372311409</v>
+        <v>14.21856441081462</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>26.38129556466809</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.602555479248875</v>
       </c>
       <c r="O11">
-        <v>12.54522134852742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.50742267004793</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.25259162709157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.160903856502063</v>
+        <v>9.636783784161159</v>
       </c>
       <c r="D12">
-        <v>4.945446584484186</v>
+        <v>6.900876211020752</v>
       </c>
       <c r="E12">
-        <v>40.02121507000632</v>
+        <v>8.288461365592596</v>
       </c>
       <c r="F12">
-        <v>18.63167855635101</v>
+        <v>15.30302856956823</v>
       </c>
       <c r="G12">
-        <v>2.018982445491213</v>
+        <v>16.80469807277816</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.11960685985192</v>
       </c>
       <c r="I12">
-        <v>13.28611418568715</v>
+        <v>3.33196205041024</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.586001457463299</v>
       </c>
       <c r="K12">
-        <v>32.55981114540928</v>
+        <v>13.57934515544418</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>26.84499539252912</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.459662057104573</v>
       </c>
       <c r="O12">
-        <v>12.63963175269804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.0741444700089</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.71325734508902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.145814023052972</v>
+        <v>9.091139217071358</v>
       </c>
       <c r="D13">
-        <v>4.936413091461657</v>
+        <v>7.049246362521089</v>
       </c>
       <c r="E13">
-        <v>39.89639767599657</v>
+        <v>7.829596468723738</v>
       </c>
       <c r="F13">
-        <v>18.57301659479654</v>
+        <v>14.58467349980933</v>
       </c>
       <c r="G13">
-        <v>2.019405599484184</v>
+        <v>15.58557003199568</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.459392879677503</v>
       </c>
       <c r="I13">
-        <v>13.24084418648897</v>
+        <v>3.299294806418407</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.411688558908211</v>
       </c>
       <c r="K13">
-        <v>32.47420845083192</v>
+        <v>12.99110217436042</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>26.92426165683213</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.48753000823627</v>
       </c>
       <c r="O13">
-        <v>12.61900608333362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.39929736318883</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.24633055042446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.096373281379218</v>
+        <v>8.68428151444807</v>
       </c>
       <c r="D14">
-        <v>4.906861352253367</v>
+        <v>7.119682263387483</v>
       </c>
       <c r="E14">
-        <v>39.48829424568508</v>
+        <v>7.658969349055808</v>
       </c>
       <c r="F14">
-        <v>18.40420104479653</v>
+        <v>14.06426727627116</v>
       </c>
       <c r="G14">
-        <v>2.020786225066793</v>
+        <v>14.75160353473346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.458791551508951</v>
       </c>
       <c r="I14">
-        <v>13.13985184223984</v>
+        <v>3.256146573223743</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.311574152241174</v>
       </c>
       <c r="K14">
-        <v>32.19371386815161</v>
+        <v>12.60414253596265</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>26.80737613226618</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.60455942356166</v>
       </c>
       <c r="O14">
-        <v>12.55285701577202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.80632099887791</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.95524132765894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.06591283303121</v>
+        <v>8.565551714683322</v>
       </c>
       <c r="D15">
-        <v>4.888689837334982</v>
+        <v>7.121134301658695</v>
       </c>
       <c r="E15">
-        <v>39.23750115937196</v>
+        <v>7.63770987779265</v>
       </c>
       <c r="F15">
-        <v>18.31564599816478</v>
+        <v>13.92700496093231</v>
       </c>
       <c r="G15">
-        <v>2.021632425792318</v>
+        <v>14.55067932579748</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.697030485328797</v>
       </c>
       <c r="I15">
-        <v>13.09072164780474</v>
+        <v>3.236107125599059</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.295577041416851</v>
       </c>
       <c r="K15">
-        <v>32.02088172370053</v>
+        <v>12.51503825976015</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>26.69616332413034</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.643585243098122</v>
       </c>
       <c r="O15">
-        <v>12.51319160005791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>17.60728120211571</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.89656874965361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.888642393861847</v>
+        <v>8.445740590821122</v>
       </c>
       <c r="D16">
-        <v>4.783486276795211</v>
+        <v>6.944326259104702</v>
       </c>
       <c r="E16">
-        <v>37.78722937911114</v>
+        <v>7.629658959541419</v>
       </c>
       <c r="F16">
-        <v>17.81680735307593</v>
+        <v>13.91837768225388</v>
       </c>
       <c r="G16">
-        <v>2.026491538617413</v>
+        <v>14.69917321493762</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.484672694085644</v>
       </c>
       <c r="I16">
-        <v>12.81829948184177</v>
+        <v>3.131730006389417</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.389186686344473</v>
       </c>
       <c r="K16">
-        <v>31.01469989780575</v>
+        <v>12.61724486172084</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>25.88646570282034</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.625633534833154</v>
       </c>
       <c r="O16">
-        <v>12.29876174991956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.13106888726479</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.05098395487539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.777463827465056</v>
+        <v>8.570210523278684</v>
       </c>
       <c r="D17">
-        <v>4.718000839566066</v>
+        <v>6.767204800486981</v>
       </c>
       <c r="E17">
-        <v>36.88530392730022</v>
+        <v>7.687325174675143</v>
       </c>
       <c r="F17">
-        <v>17.51848508860942</v>
+        <v>14.19304152912879</v>
       </c>
       <c r="G17">
-        <v>2.029483127695511</v>
+        <v>15.25299117919338</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.741029797865224</v>
       </c>
       <c r="I17">
-        <v>12.65922548744181</v>
+        <v>3.074623583356773</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.512711662714969</v>
       </c>
       <c r="K17">
-        <v>30.38328204004769</v>
+        <v>12.89666516761473</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>25.31609056152864</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.536675588933063</v>
       </c>
       <c r="O17">
-        <v>12.178483473146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.0904089400245</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.3198752157171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.712621854110863</v>
+        <v>8.953649603860715</v>
       </c>
       <c r="D18">
-        <v>4.679991385879444</v>
+        <v>6.568785602953642</v>
       </c>
       <c r="E18">
-        <v>36.36183362596085</v>
+        <v>7.950620409419505</v>
       </c>
       <c r="F18">
-        <v>17.34972828366283</v>
+        <v>14.75288263201893</v>
       </c>
       <c r="G18">
-        <v>2.03120844410733</v>
+        <v>16.24661926351341</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.473707024481494</v>
       </c>
       <c r="I18">
-        <v>12.57065015301178</v>
+        <v>3.051012687200184</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.681977203654314</v>
       </c>
       <c r="K18">
-        <v>30.01486538551937</v>
+        <v>13.38363536414381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>24.89849602307687</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.462794633150091</v>
       </c>
       <c r="O18">
-        <v>12.1133501331527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.42825303165741</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.73270365693807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.690513576297702</v>
+        <v>9.489993077941412</v>
       </c>
       <c r="D19">
-        <v>4.66706338229838</v>
+        <v>6.381500697232346</v>
       </c>
       <c r="E19">
-        <v>36.18376802116235</v>
+        <v>8.536629653314888</v>
       </c>
       <c r="F19">
-        <v>17.29307655317181</v>
+        <v>15.46113228055404</v>
       </c>
       <c r="G19">
-        <v>2.031793466840953</v>
+        <v>17.47328838145413</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.95623176841227</v>
       </c>
       <c r="I19">
-        <v>12.54115781019011</v>
+        <v>3.066589506298262</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.87188827010839</v>
       </c>
       <c r="K19">
-        <v>29.88922206541821</v>
+        <v>13.98461511134895</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>24.643703049925</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.534416077750117</v>
       </c>
       <c r="O19">
-        <v>12.09198293811477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.02805558025252</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.21983991141243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.789391558799903</v>
+        <v>10.48182531271983</v>
       </c>
       <c r="D20">
-        <v>4.725007571377504</v>
+        <v>6.221924867714185</v>
       </c>
       <c r="E20">
-        <v>36.98179793449333</v>
+        <v>9.864092717636993</v>
       </c>
       <c r="F20">
-        <v>17.54994914453823</v>
+        <v>16.61821794835574</v>
       </c>
       <c r="G20">
-        <v>2.029164203865498</v>
+        <v>19.40665958958153</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.839016305128616</v>
       </c>
       <c r="I20">
-        <v>12.67585611766681</v>
+        <v>3.176349418180487</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.129387675166907</v>
       </c>
       <c r="K20">
-        <v>30.45103921439359</v>
+        <v>14.93766829654378</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>24.86263417765942</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.964327873728157</v>
       </c>
       <c r="O20">
-        <v>12.19086620866064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.32135550447914</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.94036242112925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.110932002246791</v>
+        <v>10.96471028305865</v>
       </c>
       <c r="D21">
-        <v>4.915556061849409</v>
+        <v>6.467685753771446</v>
       </c>
       <c r="E21">
-        <v>39.60833324262916</v>
+        <v>10.22489570985209</v>
       </c>
       <c r="F21">
-        <v>18.44681852683171</v>
+        <v>17.02373497558206</v>
       </c>
       <c r="G21">
-        <v>2.020380596294959</v>
+        <v>19.85420434448321</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.079717960223425</v>
       </c>
       <c r="I21">
-        <v>13.16357376550313</v>
+        <v>3.379959537762755</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.077132188566894</v>
       </c>
       <c r="K21">
-        <v>32.27631447956546</v>
+        <v>15.11637926576218</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>26.27042582670807</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.055461544980902</v>
       </c>
       <c r="O21">
-        <v>12.57210842613328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.45664909253897</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.96639643450432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.313167337666766</v>
+        <v>11.25823753142682</v>
       </c>
       <c r="D22">
-        <v>5.036957001163051</v>
+        <v>6.628725354416851</v>
       </c>
       <c r="E22">
-        <v>41.28773262161995</v>
+        <v>10.3963376384808</v>
       </c>
       <c r="F22">
-        <v>19.23204295917102</v>
+        <v>17.27281592789166</v>
       </c>
       <c r="G22">
-        <v>2.01466556714038</v>
+        <v>20.120534901964</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.230520259336892</v>
       </c>
       <c r="I22">
-        <v>13.74839918404921</v>
+        <v>3.505075752220362</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.040227674823686</v>
       </c>
       <c r="K22">
-        <v>33.42342704885263</v>
+        <v>15.21894107681512</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>27.16022129983562</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.085391130976372</v>
       </c>
       <c r="O22">
-        <v>12.9701524255861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.12917443910268</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.97568396709511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.205950648207057</v>
+        <v>11.13243329886886</v>
       </c>
       <c r="D23">
-        <v>4.97245223262643</v>
+        <v>6.538161533228397</v>
       </c>
       <c r="E23">
-        <v>40.39456150740725</v>
+        <v>10.31351128126346</v>
       </c>
       <c r="F23">
-        <v>18.80769762604852</v>
+        <v>17.16265949719633</v>
       </c>
       <c r="G23">
-        <v>2.017714261824315</v>
+        <v>20.01841176184201</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.151394334877733</v>
       </c>
       <c r="I23">
-        <v>13.42183972822816</v>
+        <v>3.435479652066943</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.066204896614618</v>
       </c>
       <c r="K23">
-        <v>32.8153375931774</v>
+        <v>15.18810367517116</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>26.688219638429</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.06828333882009</v>
       </c>
       <c r="O23">
-        <v>12.70241974415413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.77771386723086</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.98697268541852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.784001909879452</v>
+        <v>10.58785341352256</v>
       </c>
       <c r="D24">
-        <v>4.721840951464819</v>
+        <v>6.191955250457841</v>
       </c>
       <c r="E24">
-        <v>36.93818843479685</v>
+        <v>9.978938036974041</v>
       </c>
       <c r="F24">
-        <v>17.53571567072151</v>
+        <v>16.72951514828263</v>
       </c>
       <c r="G24">
-        <v>2.029308372305415</v>
+        <v>19.60646494586473</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.843796939563182</v>
       </c>
       <c r="I24">
-        <v>12.66832845297057</v>
+        <v>3.171524198727116</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.162507213427201</v>
       </c>
       <c r="K24">
-        <v>30.4204230438618</v>
+        <v>15.04439490004927</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>24.82169038483139</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.005309170723408</v>
       </c>
       <c r="O24">
-        <v>12.18525548617408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.38112778404369</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.02365802745161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.294646354259278</v>
+        <v>9.959157323521346</v>
       </c>
       <c r="D25">
-        <v>4.438453567933883</v>
+        <v>5.794620705849741</v>
       </c>
       <c r="E25">
-        <v>33.02793716748713</v>
+        <v>9.603035996322088</v>
       </c>
       <c r="F25">
-        <v>16.35628653503508</v>
+        <v>16.31048914159894</v>
       </c>
       <c r="G25">
-        <v>2.041998698546915</v>
+        <v>19.25017766552638</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.624494012051827</v>
       </c>
       <c r="I25">
-        <v>12.0740394099504</v>
+        <v>2.876628754044062</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.283983857665957</v>
       </c>
       <c r="K25">
-        <v>27.63636217774392</v>
+        <v>14.91619446282016</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>22.6367574440252</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.937171485866702</v>
       </c>
       <c r="O25">
-        <v>11.78060595034449</v>
+        <v>17.75192898407611</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.10681577210232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.545380663796101</v>
+        <v>8.595907168621091</v>
       </c>
       <c r="D2">
-        <v>5.468193488069191</v>
+        <v>5.564941327032163</v>
       </c>
       <c r="E2">
-        <v>9.33657383404125</v>
+        <v>9.107663858114327</v>
       </c>
       <c r="F2">
-        <v>16.10416015416874</v>
+        <v>15.55701592030026</v>
       </c>
       <c r="G2">
-        <v>19.1653965222818</v>
+        <v>17.51903314889581</v>
       </c>
       <c r="H2">
-        <v>1.895019562154712</v>
+        <v>1.85546845310558</v>
       </c>
       <c r="I2">
-        <v>2.642750683232702</v>
+        <v>2.701466350918153</v>
       </c>
       <c r="J2">
-        <v>8.40328589287803</v>
+        <v>8.700674935146173</v>
       </c>
       <c r="K2">
-        <v>14.90448130281503</v>
+        <v>14.26354801326666</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.39158527961794</v>
       </c>
       <c r="M2">
-        <v>20.87795430184737</v>
+        <v>8.775057319764546</v>
       </c>
       <c r="N2">
-        <v>5.884151105206108</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.46190489083155</v>
+        <v>20.91219690478765</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>5.988864592494196</v>
       </c>
       <c r="Q2">
-        <v>13.24348574106201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.33256086518126</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.84669872235714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.198860449964016</v>
+        <v>8.315880623492621</v>
       </c>
       <c r="D3">
-        <v>5.24304942548682</v>
+        <v>5.316082866875592</v>
       </c>
       <c r="E3">
-        <v>9.136486517093001</v>
+        <v>8.935404035049235</v>
       </c>
       <c r="F3">
-        <v>15.95381228384401</v>
+        <v>15.46752256529512</v>
       </c>
       <c r="G3">
-        <v>19.08735405636335</v>
+        <v>17.57298772892957</v>
       </c>
       <c r="H3">
-        <v>2.08841372140613</v>
+        <v>2.033388313401415</v>
       </c>
       <c r="I3">
-        <v>2.481393101454961</v>
+        <v>2.559371469748729</v>
       </c>
       <c r="J3">
-        <v>8.482725311043744</v>
+        <v>8.757661824621517</v>
       </c>
       <c r="K3">
-        <v>14.87408547664699</v>
+        <v>14.28474339080436</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.51230345723348</v>
       </c>
       <c r="M3">
-        <v>19.59519404106506</v>
+        <v>8.685426271153993</v>
       </c>
       <c r="N3">
-        <v>5.849519979552933</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.51582178469006</v>
+        <v>19.63239850982668</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.962688377538806</v>
       </c>
       <c r="Q3">
-        <v>13.33063266194892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.39871336618223</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.97005436233642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.974988475510328</v>
+        <v>8.133392879528179</v>
       </c>
       <c r="D4">
-        <v>5.099524214978182</v>
+        <v>5.15730509420727</v>
       </c>
       <c r="E4">
-        <v>9.009946216244565</v>
+        <v>8.826234749855285</v>
       </c>
       <c r="F4">
-        <v>15.87210149101839</v>
+        <v>15.42197908409595</v>
       </c>
       <c r="G4">
-        <v>19.0562888353151</v>
+        <v>17.6246169708301</v>
       </c>
       <c r="H4">
-        <v>2.21143901120651</v>
+        <v>2.146614195844718</v>
       </c>
       <c r="I4">
-        <v>2.568307811762126</v>
+        <v>2.479749149133266</v>
       </c>
       <c r="J4">
-        <v>8.534919371119177</v>
+        <v>8.79433988433645</v>
       </c>
       <c r="K4">
-        <v>14.86024542743653</v>
+        <v>14.30105110027758</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.58685806732455</v>
       </c>
       <c r="M4">
-        <v>18.76250588151293</v>
+        <v>8.652038346798941</v>
       </c>
       <c r="N4">
-        <v>5.828176248915141</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.90353601421526</v>
+        <v>18.80178301247845</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.946964837851308</v>
       </c>
       <c r="Q4">
-        <v>13.39202854880872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.7939161147714</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.05228184016604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.871710485163199</v>
+        <v>8.047479565807047</v>
       </c>
       <c r="D5">
-        <v>5.041321533415459</v>
+        <v>5.092728252515708</v>
       </c>
       <c r="E5">
-        <v>8.955019062081702</v>
+        <v>8.778555618132662</v>
       </c>
       <c r="F5">
-        <v>15.8348426943065</v>
+        <v>15.39936599046922</v>
       </c>
       <c r="G5">
-        <v>19.03638681699066</v>
+        <v>17.63904354592302</v>
       </c>
       <c r="H5">
-        <v>2.263024027813621</v>
+        <v>2.194112349015662</v>
       </c>
       <c r="I5">
-        <v>2.616396923598856</v>
+        <v>2.523120681763718</v>
       </c>
       <c r="J5">
-        <v>8.555337781122233</v>
+        <v>8.808083315611162</v>
       </c>
       <c r="K5">
-        <v>14.84934472587393</v>
+        <v>14.30241846142346</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.61196509904719</v>
       </c>
       <c r="M5">
-        <v>18.41216031817062</v>
+        <v>8.640153100917788</v>
       </c>
       <c r="N5">
-        <v>5.819706216662993</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.64459256836421</v>
+        <v>18.45235767342061</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.940902561470252</v>
       </c>
       <c r="Q5">
-        <v>13.41456490266365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.53803900454644</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.08320604574399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.842995305183605</v>
+        <v>8.02216214769439</v>
       </c>
       <c r="D6">
-        <v>5.03350442271763</v>
+        <v>5.083850742790653</v>
       </c>
       <c r="E6">
-        <v>8.942828161067469</v>
+        <v>8.767703266429798</v>
       </c>
       <c r="F6">
-        <v>15.82076626102238</v>
+        <v>15.38798469293489</v>
       </c>
       <c r="G6">
-        <v>19.01949586145237</v>
+        <v>17.62825694585388</v>
       </c>
       <c r="H6">
-        <v>2.272095992638758</v>
+        <v>2.202480609715408</v>
       </c>
       <c r="I6">
-        <v>2.628598711052417</v>
+        <v>2.535261195544116</v>
       </c>
       <c r="J6">
-        <v>8.556717116551187</v>
+        <v>8.808410956420285</v>
       </c>
       <c r="K6">
-        <v>14.83973107190313</v>
+        <v>14.29526981846579</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.60956968522676</v>
       </c>
       <c r="M6">
-        <v>18.35361318868571</v>
+        <v>8.633893125121286</v>
       </c>
       <c r="N6">
-        <v>5.818606891546574</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.59910977071111</v>
+        <v>18.39396867612384</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.940221719449476</v>
       </c>
       <c r="Q6">
-        <v>13.41306206967353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.49310044102387</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.08336712472319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.942813466119469</v>
+        <v>8.106026034221415</v>
       </c>
       <c r="D7">
-        <v>5.103941250371557</v>
+        <v>5.164825054144484</v>
       </c>
       <c r="E7">
-        <v>9.001043918303347</v>
+        <v>8.818093502186532</v>
       </c>
       <c r="F7">
-        <v>15.84968330103698</v>
+        <v>15.38793182301969</v>
       </c>
       <c r="G7">
-        <v>19.01828531070505</v>
+        <v>17.65734364976613</v>
       </c>
       <c r="H7">
-        <v>2.213311624219144</v>
+        <v>2.148796224542719</v>
       </c>
       <c r="I7">
-        <v>2.57995299263297</v>
+        <v>2.493697422819195</v>
       </c>
       <c r="J7">
-        <v>8.529564496076958</v>
+        <v>8.761169376424064</v>
       </c>
       <c r="K7">
-        <v>14.83861078049328</v>
+        <v>14.2735361693649</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.56338645400796</v>
       </c>
       <c r="M7">
-        <v>18.7586475116505</v>
+        <v>8.633959687608291</v>
       </c>
       <c r="N7">
-        <v>5.828912358696362</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.89466974675526</v>
+        <v>18.79745371031307</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.947299000660117</v>
       </c>
       <c r="Q7">
-        <v>13.37768650615475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.78589030123032</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.03067127198625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.389198452497448</v>
+        <v>8.474642506539601</v>
       </c>
       <c r="D8">
-        <v>5.398300333594664</v>
+        <v>5.497130723941976</v>
       </c>
       <c r="E8">
-        <v>9.257912815525831</v>
+        <v>9.040130871694668</v>
       </c>
       <c r="F8">
-        <v>16.02149435597914</v>
+        <v>15.45528451516844</v>
       </c>
       <c r="G8">
-        <v>19.08532377801054</v>
+        <v>17.71759592468702</v>
       </c>
       <c r="H8">
-        <v>1.962296935540058</v>
+        <v>1.918680034909173</v>
       </c>
       <c r="I8">
-        <v>2.590517630679313</v>
+        <v>2.65560402388307</v>
       </c>
       <c r="J8">
-        <v>8.422510947747758</v>
+        <v>8.621910671759249</v>
       </c>
       <c r="K8">
-        <v>14.86471181391395</v>
+        <v>14.21974158190403</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.39253515345169</v>
       </c>
       <c r="M8">
-        <v>20.4460688988825</v>
+        <v>8.702919371099545</v>
       </c>
       <c r="N8">
-        <v>5.87338780361006</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.13558141973886</v>
+        <v>20.47984977638041</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.97950801081149</v>
       </c>
       <c r="Q8">
-        <v>13.25246075932544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.01270469550799</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.84245463597661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.22542317782876</v>
+        <v>9.150077623271443</v>
       </c>
       <c r="D9">
-        <v>5.923214747414541</v>
+        <v>6.078910157130908</v>
       </c>
       <c r="E9">
-        <v>9.744990021045846</v>
+        <v>9.459739233884083</v>
       </c>
       <c r="F9">
-        <v>16.4828871256525</v>
+        <v>15.74833884235726</v>
       </c>
       <c r="G9">
-        <v>19.42470906060026</v>
+        <v>17.80343763631535</v>
       </c>
       <c r="H9">
-        <v>1.618289288789378</v>
+        <v>1.624463529379596</v>
       </c>
       <c r="I9">
-        <v>2.973375340222338</v>
+        <v>2.991782094917926</v>
       </c>
       <c r="J9">
-        <v>8.250950346091654</v>
+        <v>8.469905671480269</v>
       </c>
       <c r="K9">
-        <v>14.99375854407445</v>
+        <v>14.20407134034124</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.11180165458059</v>
       </c>
       <c r="M9">
-        <v>23.39447342096438</v>
+        <v>9.050572779966584</v>
       </c>
       <c r="N9">
-        <v>5.95850322840616</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.32520694438966</v>
+        <v>23.42173114142397</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.045602839303158</v>
       </c>
       <c r="Q9">
-        <v>13.09963418813588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.17204082428939</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.58241700040867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.68452275919555</v>
+        <v>9.530494383106928</v>
       </c>
       <c r="D10">
-        <v>6.304954355092344</v>
+        <v>6.512550201491164</v>
       </c>
       <c r="E10">
-        <v>9.943807944561685</v>
+        <v>9.621230334049059</v>
       </c>
       <c r="F10">
-        <v>16.76479680540783</v>
+        <v>15.84627218481115</v>
       </c>
       <c r="G10">
-        <v>19.57311932247389</v>
+        <v>18.20615780138543</v>
       </c>
       <c r="H10">
-        <v>1.922585788230583</v>
+        <v>1.902204592589968</v>
       </c>
       <c r="I10">
-        <v>3.236655763900651</v>
+        <v>3.222284860082079</v>
       </c>
       <c r="J10">
-        <v>8.113260974405888</v>
+        <v>8.192431793361862</v>
       </c>
       <c r="K10">
-        <v>15.01366190995333</v>
+        <v>14.0854245927684</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.82194026687899</v>
       </c>
       <c r="M10">
-        <v>25.36099064597946</v>
+        <v>9.29173656783996</v>
       </c>
       <c r="N10">
-        <v>5.966172093426271</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>19.6863567066078</v>
+        <v>25.38178822959896</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.03623618281394</v>
       </c>
       <c r="Q10">
-        <v>12.95398758541901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.51637392260911</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.31364460847268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.13882690640406</v>
+        <v>9.124613985907866</v>
       </c>
       <c r="D11">
-        <v>6.671779391420972</v>
+        <v>6.914357324514329</v>
       </c>
       <c r="E11">
-        <v>8.965719890571513</v>
+        <v>8.700571930989334</v>
       </c>
       <c r="F11">
-        <v>15.99605516642805</v>
+        <v>14.979850927732</v>
       </c>
       <c r="G11">
-        <v>18.06862504846035</v>
+        <v>17.65604514801221</v>
       </c>
       <c r="H11">
-        <v>2.833713661760457</v>
+        <v>2.813392364390257</v>
       </c>
       <c r="I11">
-        <v>3.317480752175591</v>
+        <v>3.293113079139699</v>
       </c>
       <c r="J11">
-        <v>7.806331826979769</v>
+        <v>7.700394480883305</v>
       </c>
       <c r="K11">
-        <v>14.21856441081462</v>
+        <v>13.29503530252694</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.20950992929841</v>
       </c>
       <c r="M11">
-        <v>26.38129556466809</v>
+        <v>8.764324011953194</v>
       </c>
       <c r="N11">
-        <v>5.602555479248875</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.50742267004793</v>
+        <v>26.39420591440814</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5.635473313820244</v>
       </c>
       <c r="Q11">
-        <v>12.25259162709157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.35322665238965</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.57542000408222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.636783784161159</v>
+        <v>8.744408452084819</v>
       </c>
       <c r="D12">
-        <v>6.900876211020752</v>
+        <v>7.152365104650062</v>
       </c>
       <c r="E12">
-        <v>8.288461365592596</v>
+        <v>8.081778179634073</v>
       </c>
       <c r="F12">
-        <v>15.30302856956823</v>
+        <v>14.28809826836846</v>
       </c>
       <c r="G12">
-        <v>16.80469807277816</v>
+        <v>16.87599568456486</v>
       </c>
       <c r="H12">
-        <v>4.11960685985192</v>
+        <v>4.104895059197103</v>
       </c>
       <c r="I12">
-        <v>3.33196205041024</v>
+        <v>3.304835808626295</v>
       </c>
       <c r="J12">
-        <v>7.586001457463299</v>
+        <v>7.482789713393018</v>
       </c>
       <c r="K12">
-        <v>13.57934515544418</v>
+        <v>12.71868774476623</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.81407534019293</v>
       </c>
       <c r="M12">
-        <v>26.84499539252912</v>
+        <v>8.304993239097845</v>
       </c>
       <c r="N12">
-        <v>5.459662057104573</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>19.0741444700089</v>
+        <v>26.85348381639521</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.466407312274972</v>
       </c>
       <c r="Q12">
-        <v>11.71325734508902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.93520551789186</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.06645593765669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.091139217071358</v>
+        <v>8.312646165874916</v>
       </c>
       <c r="D13">
-        <v>7.049246362521089</v>
+        <v>7.282570577265747</v>
       </c>
       <c r="E13">
-        <v>7.829596468723738</v>
+        <v>7.685044060422198</v>
       </c>
       <c r="F13">
-        <v>14.58467349980933</v>
+        <v>13.67843104759937</v>
       </c>
       <c r="G13">
-        <v>15.58557003199568</v>
+        <v>15.6211569440245</v>
       </c>
       <c r="H13">
-        <v>5.459392879677503</v>
+        <v>5.450009885975731</v>
       </c>
       <c r="I13">
-        <v>3.299294806418407</v>
+        <v>3.276984857403139</v>
       </c>
       <c r="J13">
-        <v>7.411688558908211</v>
+        <v>7.425989154184433</v>
       </c>
       <c r="K13">
-        <v>12.99110217436042</v>
+        <v>12.25564821893978</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.533631406529</v>
       </c>
       <c r="M13">
-        <v>26.92426165683213</v>
+        <v>7.862928200117654</v>
       </c>
       <c r="N13">
-        <v>5.48753000823627</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.39929736318883</v>
+        <v>26.93126938680389</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.4779439832634</v>
       </c>
       <c r="Q13">
-        <v>11.24633055042446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.27528168037541</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.69876066551823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.68428151444807</v>
+        <v>7.983463877577266</v>
       </c>
       <c r="D14">
-        <v>7.119682263387483</v>
+        <v>7.327808715532695</v>
       </c>
       <c r="E14">
-        <v>7.658969349055808</v>
+        <v>7.558246475619239</v>
       </c>
       <c r="F14">
-        <v>14.06426727627116</v>
+        <v>13.2804440112387</v>
       </c>
       <c r="G14">
-        <v>14.75160353473346</v>
+        <v>14.54257158501435</v>
       </c>
       <c r="H14">
-        <v>6.458791551508951</v>
+        <v>6.463613149590944</v>
       </c>
       <c r="I14">
-        <v>3.256146573223743</v>
+        <v>3.240898897771292</v>
       </c>
       <c r="J14">
-        <v>7.311574152241174</v>
+        <v>7.438221601311872</v>
       </c>
       <c r="K14">
-        <v>12.60414253596265</v>
+        <v>11.97962934991386</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.38118976216866</v>
       </c>
       <c r="M14">
-        <v>26.80737613226618</v>
+        <v>7.562543320995337</v>
       </c>
       <c r="N14">
-        <v>5.60455942356166</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.80632099887791</v>
+        <v>26.81457671728247</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.588917147922345</v>
       </c>
       <c r="Q14">
-        <v>10.95524132765894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.692760323936</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.5025912057884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.565551714683322</v>
+        <v>7.883624886705087</v>
       </c>
       <c r="D15">
-        <v>7.121134301658695</v>
+        <v>7.317769388825226</v>
       </c>
       <c r="E15">
-        <v>7.63770987779265</v>
+        <v>7.547981473795843</v>
       </c>
       <c r="F15">
-        <v>13.92700496093231</v>
+        <v>13.19266025872102</v>
       </c>
       <c r="G15">
-        <v>14.55067932579748</v>
+        <v>14.1941917619737</v>
       </c>
       <c r="H15">
-        <v>6.697030485328797</v>
+        <v>6.701171352731429</v>
       </c>
       <c r="I15">
-        <v>3.236107125599059</v>
+        <v>3.224734144473171</v>
       </c>
       <c r="J15">
-        <v>7.295577041416851</v>
+        <v>7.463454024790157</v>
       </c>
       <c r="K15">
-        <v>12.51503825976015</v>
+        <v>11.92750907220722</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.35821829362906</v>
       </c>
       <c r="M15">
-        <v>26.69616332413034</v>
+        <v>7.489426822604275</v>
       </c>
       <c r="N15">
-        <v>5.643585243098122</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.60728120211571</v>
+        <v>26.70401787743284</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.628186302857128</v>
       </c>
       <c r="Q15">
-        <v>10.89656874965361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>17.49628989695428</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.47765376514763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.445740590821122</v>
+        <v>7.756769175665338</v>
       </c>
       <c r="D16">
-        <v>6.944326259104702</v>
+        <v>7.09630035446841</v>
       </c>
       <c r="E16">
-        <v>7.629658959541419</v>
+        <v>7.543602181127943</v>
       </c>
       <c r="F16">
-        <v>13.91837768225388</v>
+        <v>13.34442103701024</v>
       </c>
       <c r="G16">
-        <v>14.69917321493762</v>
+        <v>13.65206708370822</v>
       </c>
       <c r="H16">
-        <v>6.484672694085644</v>
+        <v>6.486244324267046</v>
       </c>
       <c r="I16">
-        <v>3.131730006389417</v>
+        <v>3.136776790797096</v>
       </c>
       <c r="J16">
-        <v>7.389186686344473</v>
+        <v>7.697940635032379</v>
       </c>
       <c r="K16">
-        <v>12.61724486172084</v>
+        <v>12.10931146188867</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.52021665412785</v>
       </c>
       <c r="M16">
-        <v>25.88646570282034</v>
+        <v>7.531030505018226</v>
       </c>
       <c r="N16">
-        <v>5.625633534833154</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.13106888726479</v>
+        <v>25.89994686161249</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.623644068432252</v>
       </c>
       <c r="Q16">
-        <v>11.05098395487539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.02019436606886</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.7188394464518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.570210523278684</v>
+        <v>7.836666221197788</v>
       </c>
       <c r="D17">
-        <v>6.767204800486981</v>
+        <v>6.903329777907423</v>
       </c>
       <c r="E17">
-        <v>7.687325174675143</v>
+        <v>7.580389832070766</v>
       </c>
       <c r="F17">
-        <v>14.19304152912879</v>
+        <v>13.66026474726961</v>
       </c>
       <c r="G17">
-        <v>15.25299117919338</v>
+        <v>13.90264401545313</v>
       </c>
       <c r="H17">
-        <v>5.741029797865224</v>
+        <v>5.741042043442588</v>
       </c>
       <c r="I17">
-        <v>3.074623583356773</v>
+        <v>3.088207781179211</v>
       </c>
       <c r="J17">
-        <v>7.512711662714969</v>
+        <v>7.877173647515795</v>
       </c>
       <c r="K17">
-        <v>12.89666516761473</v>
+        <v>12.3874469555006</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.73144507378425</v>
       </c>
       <c r="M17">
-        <v>25.31609056152864</v>
+        <v>7.709585079742702</v>
       </c>
       <c r="N17">
-        <v>5.536675588933063</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.0904089400245</v>
+        <v>25.33342127313725</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.548344000420389</v>
       </c>
       <c r="Q17">
-        <v>11.3198752157171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.97469395091687</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.99933627648319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.953649603860715</v>
+        <v>8.130694502497805</v>
       </c>
       <c r="D18">
-        <v>6.568785602953642</v>
+        <v>6.705814005878389</v>
       </c>
       <c r="E18">
-        <v>7.950620409419505</v>
+        <v>7.797423719842593</v>
       </c>
       <c r="F18">
-        <v>14.75288263201893</v>
+        <v>14.19013782650942</v>
       </c>
       <c r="G18">
-        <v>16.24661926351341</v>
+        <v>14.70959752222675</v>
       </c>
       <c r="H18">
-        <v>4.473707024481494</v>
+        <v>4.472994163176494</v>
       </c>
       <c r="I18">
-        <v>3.051012687200184</v>
+        <v>3.066335796566775</v>
       </c>
       <c r="J18">
-        <v>7.681977203654314</v>
+        <v>8.051474452256551</v>
       </c>
       <c r="K18">
-        <v>13.38363536414381</v>
+        <v>12.81610460771625</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.03859738512936</v>
       </c>
       <c r="M18">
-        <v>24.89849602307687</v>
+        <v>8.045973925670392</v>
       </c>
       <c r="N18">
-        <v>5.462794633150091</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.42825303165741</v>
+        <v>24.91906147249487</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.491760963072347</v>
       </c>
       <c r="Q18">
-        <v>11.73270365693807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.30183852493925</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.37635003982541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.489993077941412</v>
+        <v>8.549840745454544</v>
       </c>
       <c r="D19">
-        <v>6.381500697232346</v>
+        <v>6.529474996412462</v>
       </c>
       <c r="E19">
-        <v>8.536629653314888</v>
+        <v>8.321398591812116</v>
       </c>
       <c r="F19">
-        <v>15.46113228055404</v>
+        <v>14.82583136744579</v>
       </c>
       <c r="G19">
-        <v>17.47328838145413</v>
+        <v>15.7940557598428</v>
       </c>
       <c r="H19">
-        <v>2.95623176841227</v>
+        <v>2.956146604902772</v>
       </c>
       <c r="I19">
-        <v>3.066589506298262</v>
+        <v>3.080328658308284</v>
       </c>
       <c r="J19">
-        <v>7.87188827010839</v>
+        <v>8.21663088601751</v>
       </c>
       <c r="K19">
-        <v>13.98461511134895</v>
+        <v>13.32339258744314</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.39355370858095</v>
       </c>
       <c r="M19">
-        <v>24.643703049925</v>
+        <v>8.470278210305294</v>
       </c>
       <c r="N19">
-        <v>5.534416077750117</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.02805558025252</v>
+        <v>24.66683442711864</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.584187117049832</v>
       </c>
       <c r="Q19">
-        <v>12.21983991141243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.88689648587542</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.79855798974589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.48182531271983</v>
+        <v>9.345707960028252</v>
       </c>
       <c r="D20">
-        <v>6.221924867714185</v>
+        <v>6.406353506622716</v>
       </c>
       <c r="E20">
-        <v>9.864092717636993</v>
+        <v>9.551336653996774</v>
       </c>
       <c r="F20">
-        <v>16.61821794835574</v>
+        <v>15.79408879560299</v>
       </c>
       <c r="G20">
-        <v>19.40665958958153</v>
+        <v>17.72215256912843</v>
       </c>
       <c r="H20">
-        <v>1.839016305128616</v>
+        <v>1.826797172342005</v>
       </c>
       <c r="I20">
-        <v>3.176349418180487</v>
+        <v>3.175130694909298</v>
       </c>
       <c r="J20">
-        <v>8.129387675166907</v>
+        <v>8.340796599047177</v>
       </c>
       <c r="K20">
-        <v>14.93766829654378</v>
+        <v>14.07715321092413</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.87052357963688</v>
       </c>
       <c r="M20">
-        <v>24.86263417765942</v>
+        <v>9.191052591619515</v>
       </c>
       <c r="N20">
-        <v>5.964327873728157</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>19.32135550447914</v>
+        <v>24.88633898922789</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.040252355568854</v>
       </c>
       <c r="Q20">
-        <v>12.94036242112925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.15434257687525</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.3661978190558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.96471028305865</v>
+        <v>9.793045980830746</v>
       </c>
       <c r="D21">
-        <v>6.467685753771446</v>
+        <v>6.74349521077552</v>
       </c>
       <c r="E21">
-        <v>10.22489570985209</v>
+        <v>9.880093308525371</v>
       </c>
       <c r="F21">
-        <v>17.02373497558206</v>
+        <v>15.81472375984941</v>
       </c>
       <c r="G21">
-        <v>19.85420434448321</v>
+        <v>19.69604749018136</v>
       </c>
       <c r="H21">
-        <v>2.079717960223425</v>
+        <v>2.041068296164765</v>
       </c>
       <c r="I21">
-        <v>3.379959537762755</v>
+        <v>3.346686042621775</v>
       </c>
       <c r="J21">
-        <v>8.077132188566894</v>
+        <v>7.747064599924588</v>
       </c>
       <c r="K21">
-        <v>15.11637926576218</v>
+        <v>13.99076235274277</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.65412500943554</v>
       </c>
       <c r="M21">
-        <v>26.27042582670807</v>
+        <v>9.396584643628303</v>
       </c>
       <c r="N21">
-        <v>6.055461544980902</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20.45664909253897</v>
+        <v>26.28363437808897</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.116235066014155</v>
       </c>
       <c r="Q21">
-        <v>12.96639643450432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.28275572714755</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.12145152477178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.25823753142682</v>
+        <v>10.07506839419876</v>
       </c>
       <c r="D22">
-        <v>6.628725354416851</v>
+        <v>6.965235392396033</v>
       </c>
       <c r="E22">
-        <v>10.3963376384808</v>
+        <v>10.03625330432263</v>
       </c>
       <c r="F22">
-        <v>17.27281592789166</v>
+        <v>15.80001309660169</v>
       </c>
       <c r="G22">
-        <v>20.120534901964</v>
+        <v>21.1019182038267</v>
       </c>
       <c r="H22">
-        <v>2.230520259336892</v>
+        <v>2.17529483000486</v>
       </c>
       <c r="I22">
-        <v>3.505075752220362</v>
+        <v>3.450403466925186</v>
       </c>
       <c r="J22">
-        <v>8.040227674823686</v>
+        <v>7.418198087392001</v>
       </c>
       <c r="K22">
-        <v>15.21894107681512</v>
+        <v>13.91241216596764</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.49920864430859</v>
       </c>
       <c r="M22">
-        <v>27.16022129983562</v>
+        <v>9.520914811399495</v>
       </c>
       <c r="N22">
-        <v>6.085391130976372</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>21.12917443910268</v>
+        <v>27.16658972213123</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.134900134376438</v>
       </c>
       <c r="Q22">
-        <v>12.97568396709511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.95207887827086</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.94063540386634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.13243329886886</v>
+        <v>9.945814511604496</v>
       </c>
       <c r="D23">
-        <v>6.538161533228397</v>
+        <v>6.835413927303907</v>
       </c>
       <c r="E23">
-        <v>10.31351128126346</v>
+        <v>9.959782696334777</v>
       </c>
       <c r="F23">
-        <v>17.16265949719633</v>
+        <v>15.86099009531632</v>
       </c>
       <c r="G23">
-        <v>20.01841176184201</v>
+        <v>20.19771623198834</v>
       </c>
       <c r="H23">
-        <v>2.151394334877733</v>
+        <v>2.105541097294867</v>
       </c>
       <c r="I23">
-        <v>3.435479652066943</v>
+        <v>3.391511353129575</v>
       </c>
       <c r="J23">
-        <v>8.066204896614618</v>
+        <v>7.630798126259515</v>
       </c>
       <c r="K23">
-        <v>15.18810367517116</v>
+        <v>13.99470626354065</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.607962579856</v>
       </c>
       <c r="M23">
-        <v>26.688219638429</v>
+        <v>9.489324199945395</v>
       </c>
       <c r="N23">
-        <v>6.06828333882009</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.77771386723086</v>
+        <v>26.69894861177671</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.124623976814838</v>
       </c>
       <c r="Q23">
-        <v>12.98697268541852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.60095786637497</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.07411531305228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.58785341352256</v>
+        <v>9.435624657000661</v>
       </c>
       <c r="D24">
-        <v>6.191955250457841</v>
+        <v>6.376743451388582</v>
       </c>
       <c r="E24">
-        <v>9.978938036974041</v>
+        <v>9.659919541818915</v>
       </c>
       <c r="F24">
-        <v>16.72951514828263</v>
+        <v>15.89863135690909</v>
       </c>
       <c r="G24">
-        <v>19.60646494586473</v>
+        <v>17.89652601840869</v>
       </c>
       <c r="H24">
-        <v>1.843796939563182</v>
+        <v>1.831337101454429</v>
       </c>
       <c r="I24">
-        <v>3.171524198727116</v>
+        <v>3.16804081704266</v>
       </c>
       <c r="J24">
-        <v>8.162507213427201</v>
+        <v>8.372901422021902</v>
       </c>
       <c r="K24">
-        <v>15.04439490004927</v>
+        <v>14.17214922678776</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.93871757688764</v>
       </c>
       <c r="M24">
-        <v>24.82169038483139</v>
+        <v>9.267496705607115</v>
       </c>
       <c r="N24">
-        <v>6.005309170723408</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>19.38112778404369</v>
+        <v>24.84565891208032</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.083554403172809</v>
       </c>
       <c r="Q24">
-        <v>13.02365802745161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.21246246968462</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.44190536286498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.959157323521346</v>
+        <v>8.925915382995756</v>
       </c>
       <c r="D25">
-        <v>5.794620705849741</v>
+        <v>5.931515126047135</v>
       </c>
       <c r="E25">
-        <v>9.603035996322088</v>
+        <v>9.335879550328398</v>
       </c>
       <c r="F25">
-        <v>16.31048914159894</v>
+        <v>15.64113428564319</v>
       </c>
       <c r="G25">
-        <v>19.25017766552638</v>
+        <v>17.59645356377589</v>
       </c>
       <c r="H25">
-        <v>1.624494012051827</v>
+        <v>1.607702354032759</v>
       </c>
       <c r="I25">
-        <v>2.876628754044062</v>
+        <v>2.90963668070263</v>
       </c>
       <c r="J25">
-        <v>8.283983857665957</v>
+        <v>8.539012217270889</v>
       </c>
       <c r="K25">
-        <v>14.91619446282016</v>
+        <v>14.1799450710357</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.16871271901028</v>
       </c>
       <c r="M25">
-        <v>22.6367574440252</v>
+        <v>8.91895412864069</v>
       </c>
       <c r="N25">
-        <v>5.937171485866702</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.75192898407611</v>
+        <v>22.66622637555783</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.029752740604361</v>
       </c>
       <c r="Q25">
-        <v>13.10681577210232</v>
+        <v>17.60627607902048</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.63350845841566</v>
       </c>
     </row>
   </sheetData>
